--- a/Stare_training_results/xlsx/unet_with_amplification256x256d4f32.xlsx
+++ b/Stare_training_results/xlsx/unet_with_amplification256x256d4f32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>binary_io_u_8</t>
+          <t>binary_io_u_2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>precision_8</t>
+          <t>precision_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>recall_8</t>
+          <t>recall_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>auc_8</t>
+          <t>auc_2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>binary_crossentropy</t>
+          <t>Mcc</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,22 +476,22 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>val_binary_io_u_8</t>
+          <t>val_binary_io_u_2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>val_precision_8</t>
+          <t>val_precision_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>val_recall_8</t>
+          <t>val_recall_2</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>val_auc_8</t>
+          <t>val_auc_2</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>val_binary_crossentropy</t>
+          <t>val_Mcc</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -512,46 +512,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.197822690010071</v>
+        <v>1.214359521865845</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5108948945999146</v>
+        <v>0.4898797869682312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3899762332439423</v>
+        <v>0.3616443276405334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7738199234008789</v>
+        <v>0.8217676281929016</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8474348783493042</v>
+        <v>0.8609247803688049</v>
       </c>
       <c r="F2" t="n">
-        <v>0.488292008638382</v>
+        <v>0.4730271697044373</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5866286754608154</v>
+        <v>0.4126957058906555</v>
       </c>
       <c r="H2" t="n">
-        <v>1.382969260215759</v>
+        <v>1.434675335884094</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4354697167873383</v>
+        <v>0.437099426984787</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.1203290224075317</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.01392093580216169</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4406827390193939</v>
+        <v>0.5169808268547058</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.0249513890594244</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5123310089111328</v>
+        <v>-0.003044243901968002</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -559,46 +559,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9294664859771729</v>
+        <v>0.9919534921646118</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6659586429595947</v>
+        <v>0.6316071748733521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6216455101966858</v>
+        <v>0.5569080710411072</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7811424136161804</v>
+        <v>0.8169429302215576</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9094924330711365</v>
+        <v>0.9138833284378052</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6745728850364685</v>
+        <v>0.6377238035202026</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4146607518196106</v>
+        <v>0.5903346538543701</v>
       </c>
       <c r="H3" t="n">
-        <v>1.389863610267639</v>
+        <v>1.350923538208008</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4365834295749664</v>
+        <v>0.4368699789047241</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.1154897958040237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.006750193424522877</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5163347125053406</v>
+        <v>0.5866623520851135</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.01275539118796587</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3923597037792206</v>
+        <v>-0.003323067212477326</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -606,46 +606,46 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8313357830047607</v>
+        <v>0.9047724604606628</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7094200849533081</v>
+        <v>0.6789202690124512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6943289041519165</v>
+        <v>0.6348072290420532</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7785875797271729</v>
+        <v>0.805692732334137</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9258108139038086</v>
+        <v>0.9235000610351562</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7233809232711792</v>
+        <v>0.6919668912887573</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3584871888160706</v>
+        <v>0.6471743583679199</v>
       </c>
       <c r="H4" t="n">
-        <v>1.332217693328857</v>
+        <v>1.330991864204407</v>
       </c>
       <c r="I4" t="n">
-        <v>0.455539733171463</v>
+        <v>0.445644199848175</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5186086893081665</v>
+        <v>0.3436963856220245</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03750152885913849</v>
+        <v>0.02589076571166515</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7303830981254578</v>
+        <v>0.7169220447540283</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06987376511096954</v>
+        <v>0.04815524816513062</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3545671701431274</v>
+        <v>0.06276962161064148</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -653,46 +653,46 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.7854039669036865</v>
+        <v>0.8544238209724426</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7202680110931396</v>
+        <v>0.6991119384765625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7422008514404297</v>
+        <v>0.6687359809875488</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7539538741111755</v>
+        <v>0.8006789684295654</v>
       </c>
       <c r="E5" t="n">
-        <v>0.924757719039917</v>
+        <v>0.9285464286804199</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7398970723152161</v>
+        <v>0.7144483923912048</v>
       </c>
       <c r="G5" t="n">
-        <v>0.327777087688446</v>
+        <v>0.6718547940254211</v>
       </c>
       <c r="H5" t="n">
-        <v>1.087441802024841</v>
+        <v>1.063847064971924</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5776564478874207</v>
+        <v>0.5949007272720337</v>
       </c>
       <c r="J5" t="n">
-        <v>0.813313364982605</v>
+        <v>0.7424410581588745</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2709180414676666</v>
+        <v>0.331147700548172</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8079689145088196</v>
+        <v>0.8288520574569702</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4064642488956451</v>
+        <v>0.4579979479312897</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2991726696491241</v>
+        <v>0.4500643908977509</v>
       </c>
       <c r="O5" t="n">
         <v>4</v>
@@ -700,46 +700,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.754676342010498</v>
+        <v>0.8237866163253784</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7331318259239197</v>
+        <v>0.7087215185165405</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7517857551574707</v>
+        <v>0.6964194774627686</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7607390284538269</v>
+        <v>0.7878162264823914</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9321547150611877</v>
+        <v>0.927890956401825</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7496157884597778</v>
+        <v>0.7261026501655579</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3084066212177277</v>
+        <v>0.6845491528511047</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8277257084846497</v>
+        <v>0.8971886038780212</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7012284994125366</v>
+        <v>0.683085560798645</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7814497947692871</v>
+        <v>0.6373457312583923</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5594413280487061</v>
+        <v>0.6398225426673889</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8855225443840027</v>
+        <v>0.882722795009613</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6520189642906189</v>
+        <v>0.638560950756073</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2540448606014252</v>
+        <v>0.5844691395759583</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -747,46 +747,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.715172290802002</v>
+        <v>0.7881942391395569</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7435275316238403</v>
+        <v>0.7191011905670166</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7768213152885437</v>
+        <v>0.7206308245658875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7607309818267822</v>
+        <v>0.7846104502677917</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9357807636260986</v>
+        <v>0.9310837388038635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7624514698982239</v>
+        <v>0.7388888597488403</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2895220518112183</v>
+        <v>0.698641836643219</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7166295051574707</v>
+        <v>0.7504796385765076</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7493090033531189</v>
+        <v>0.7456637620925903</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7816615700721741</v>
+        <v>0.778499960899353</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6858820915222168</v>
+        <v>0.6794538497924805</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9270532727241516</v>
+        <v>0.9238762855529785</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7306811809539795</v>
+        <v>0.7256078720092773</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2446972280740738</v>
+        <v>0.6887832880020142</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -794,46 +794,46 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6910758018493652</v>
+        <v>0.7368916273117065</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7439802885055542</v>
+        <v>0.7334693670272827</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7895449995994568</v>
+        <v>0.7511484622955322</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7435922026634216</v>
+        <v>0.7808766961097717</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9358187317848206</v>
+        <v>0.9356799125671387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7640804648399353</v>
+        <v>0.7556222081184387</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2748196125030518</v>
+        <v>0.7175832390785217</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6596296429634094</v>
+        <v>0.7198677062988281</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7698817253112793</v>
+        <v>0.7502872347831726</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7659596800804138</v>
+        <v>0.6892667412757874</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7546377182006836</v>
+        <v>0.8009886741638184</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9411571025848389</v>
+        <v>0.9422749280929565</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7602485418319702</v>
+        <v>0.7409398555755615</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2396107316017151</v>
+        <v>0.7013958096504211</v>
       </c>
       <c r="O8" t="n">
         <v>7</v>
@@ -841,46 +841,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6479249000549316</v>
+        <v>0.7076091170310974</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7520774602890015</v>
+        <v>0.7412993907928467</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8138488531112671</v>
+        <v>0.7640420198440552</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7512509226799011</v>
+        <v>0.7752619981765747</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9431729912757874</v>
+        <v>0.9356722235679626</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7775624990463257</v>
+        <v>0.7626942992210388</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2542045414447784</v>
+        <v>0.7241004109382629</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6700177192687988</v>
+        <v>0.7076814770698547</v>
       </c>
       <c r="I9" t="n">
-        <v>0.76503586769104</v>
+        <v>0.7538600564002991</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7492241263389587</v>
+        <v>0.6832188367843628</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7544726133346558</v>
+        <v>0.8162047863006592</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9434985518455505</v>
+        <v>0.9478596448898315</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7518585920333862</v>
+        <v>0.7438268065452576</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2460930347442627</v>
+        <v>0.7064308524131775</v>
       </c>
       <c r="O9" t="n">
         <v>8</v>
@@ -888,46 +888,46 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.6264699697494507</v>
+        <v>0.6792624592781067</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7649926543235779</v>
+        <v>0.748378574848175</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8017172813415527</v>
+        <v>0.7690601348876953</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7597610950469971</v>
+        <v>0.7875190377235413</v>
       </c>
       <c r="E10" t="n">
-        <v>0.944760262966156</v>
+        <v>0.9417563080787659</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7818069458007812</v>
+        <v>0.7701282501220703</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2455696910619736</v>
+        <v>0.733056366443634</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6445451378822327</v>
+        <v>0.7269854545593262</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7704246044158936</v>
+        <v>0.7455636262893677</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7474231123924255</v>
+        <v>0.6762582659721375</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7797304391860962</v>
+        <v>0.8061651587486267</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9472106099128723</v>
+        <v>0.944267749786377</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7632727026939392</v>
+        <v>0.7354876399040222</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2490317225456238</v>
+        <v>0.6962367296218872</v>
       </c>
       <c r="O10" t="n">
         <v>9</v>
@@ -935,46 +935,46 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.602313756942749</v>
+        <v>0.6444235444068909</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7648904323577881</v>
+        <v>0.755354642868042</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8127642273902893</v>
+        <v>0.78212571144104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7595206499099731</v>
+        <v>0.7815465331077576</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9459354281425476</v>
+        <v>0.9431490302085876</v>
       </c>
       <c r="F11" t="n">
-        <v>0.785919725894928</v>
+        <v>0.7776241302490234</v>
       </c>
       <c r="G11" t="n">
-        <v>0.230877161026001</v>
+        <v>0.7417445778846741</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7057384848594666</v>
+        <v>0.6791148781776428</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7446897625923157</v>
+        <v>0.7589104175567627</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6715717911720276</v>
+        <v>0.6917788982391357</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8086430430412292</v>
+        <v>0.8207002282142639</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9444440007209778</v>
+        <v>0.9499750733375549</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7337604165077209</v>
+        <v>0.7507368326187134</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3080629110336304</v>
+        <v>0.7144651412963867</v>
       </c>
       <c r="O11" t="n">
         <v>10</v>
@@ -982,46 +982,46 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.598058819770813</v>
+        <v>0.6327701807022095</v>
       </c>
       <c r="B12" t="n">
-        <v>0.761249303817749</v>
+        <v>0.749239981174469</v>
       </c>
       <c r="C12" t="n">
-        <v>0.817794144153595</v>
+        <v>0.7974503040313721</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7490777373313904</v>
+        <v>0.7658467292785645</v>
       </c>
       <c r="E12" t="n">
-        <v>0.944534957408905</v>
+        <v>0.9399253129959106</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7831912636756897</v>
+        <v>0.7772154808044434</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2273159027099609</v>
+        <v>0.7416383028030396</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6910701394081116</v>
+        <v>0.6710019707679749</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7513058185577393</v>
+        <v>0.7566354274749756</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6903188824653625</v>
+        <v>0.702136218547821</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7962364554405212</v>
+        <v>0.802968442440033</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9427329897880554</v>
+        <v>0.94679194688797</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7394599318504333</v>
+        <v>0.7491627335548401</v>
       </c>
       <c r="N12" t="n">
-        <v>0.3040843904018402</v>
+        <v>0.7111560106277466</v>
       </c>
       <c r="O12" t="n">
         <v>11</v>
@@ -1029,46 +1029,46 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5911324024200439</v>
+        <v>0.611122190952301</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7612175345420837</v>
+        <v>0.7610278129577637</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8149327039718628</v>
+        <v>0.8012758493423462</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7446798086166382</v>
+        <v>0.7646026015281677</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9420884251594543</v>
+        <v>0.9397670030593872</v>
       </c>
       <c r="F13" t="n">
-        <v>0.781343936920166</v>
+        <v>0.7824333310127258</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2239035367965698</v>
+        <v>0.7476148009300232</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6034547686576843</v>
+        <v>0.6450349688529968</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7725688219070435</v>
+        <v>0.7638292908668518</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7391896843910217</v>
+        <v>0.7221704721450806</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8012045621871948</v>
+        <v>0.7946948409080505</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9540196657180786</v>
+        <v>0.9486448168754578</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7689273357391357</v>
+        <v>0.7567040324211121</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2482758760452271</v>
+        <v>0.7191587686538696</v>
       </c>
       <c r="O13" t="n">
         <v>12</v>
@@ -1076,46 +1076,46 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.5652565956115723</v>
+        <v>0.6013266444206238</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7649821639060974</v>
+        <v>0.7577316761016846</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8291909098625183</v>
+        <v>0.8056843876838684</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7460160851478577</v>
+        <v>0.7678123116493225</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9462263584136963</v>
+        <v>0.939542293548584</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7880852818489075</v>
+        <v>0.7838571071624756</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2132864743471146</v>
+        <v>0.7490480542182922</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5903279781341553</v>
+        <v>0.6031929850578308</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7709749937057495</v>
+        <v>0.7717138528823853</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7416296005249023</v>
+        <v>0.7286436557769775</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7948479056358337</v>
+        <v>0.8090868592262268</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9517770409584045</v>
+        <v>0.9520972967147827</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7673158645629883</v>
+        <v>0.7667618989944458</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2284328490495682</v>
+        <v>0.7315296530723572</v>
       </c>
       <c r="O14" t="n">
         <v>13</v>
@@ -1123,46 +1123,46 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5342599749565125</v>
+        <v>0.5714820027351379</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7751957178115845</v>
+        <v>0.7683072686195374</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8300068974494934</v>
+        <v>0.8053575754165649</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7604909539222717</v>
+        <v>0.7775322198867798</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9514497518539429</v>
+        <v>0.9465524554252625</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7970755100250244</v>
+        <v>0.7912148833274841</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1970790326595306</v>
+        <v>0.7572162747383118</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5937349200248718</v>
+        <v>0.6106894612312317</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7731550335884094</v>
+        <v>0.7706878781318665</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7402535080909729</v>
+        <v>0.7237851023674011</v>
       </c>
       <c r="K15" t="n">
-        <v>0.796631932258606</v>
+        <v>0.8060061931610107</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9530552625656128</v>
+        <v>0.9518482089042664</v>
       </c>
       <c r="M15" t="n">
-        <v>0.7674128413200378</v>
+        <v>0.7627167105674744</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2409998923540115</v>
+        <v>0.7274712920188904</v>
       </c>
       <c r="O15" t="n">
         <v>14</v>
@@ -1170,46 +1170,46 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5350157022476196</v>
+        <v>0.5616214871406555</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7716647386550903</v>
+        <v>0.7687903642654419</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8370619416236877</v>
+        <v>0.8151658773422241</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7536104917526245</v>
+        <v>0.7690874338150024</v>
       </c>
       <c r="E16" t="n">
-        <v>0.949468195438385</v>
+        <v>0.9448950290679932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7955539226531982</v>
+        <v>0.7922706007957458</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1989285200834274</v>
+        <v>0.758412778377533</v>
       </c>
       <c r="H16" t="n">
-        <v>0.563748300075531</v>
+        <v>0.57582026720047</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7782313227653503</v>
+        <v>0.7733180522918701</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7432725429534912</v>
+        <v>0.7639297842979431</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8107849359512329</v>
+        <v>0.7735716104507446</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9562520980834961</v>
+        <v>0.9497222304344177</v>
       </c>
       <c r="M16" t="n">
-        <v>0.775623619556427</v>
+        <v>0.7687206268310547</v>
       </c>
       <c r="N16" t="n">
-        <v>0.217395007610321</v>
+        <v>0.7333004474639893</v>
       </c>
       <c r="O16" t="n">
         <v>15</v>
@@ -1217,46 +1217,46 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.5157780051231384</v>
+        <v>0.5426887273788452</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7747900485992432</v>
+        <v>0.7727782130241394</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8293986320495605</v>
+        <v>0.8132224082946777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7655095458030701</v>
+        <v>0.7740092873573303</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9533069133758545</v>
+        <v>0.9470974206924438</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7980197072029114</v>
+        <v>0.7939930558204651</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1880136281251907</v>
+        <v>0.760683000087738</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5610464215278625</v>
+        <v>0.6897163987159729</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7838529348373413</v>
+        <v>0.7421090602874756</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7609220147132874</v>
+        <v>0.657744288444519</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8017044067382812</v>
+        <v>0.8342545032501221</v>
       </c>
       <c r="L17" t="n">
-        <v>0.9561339616775513</v>
+        <v>0.9458907842636108</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7807924747467041</v>
+        <v>0.735550582408905</v>
       </c>
       <c r="N17" t="n">
-        <v>0.2139429301023483</v>
+        <v>0.6954086422920227</v>
       </c>
       <c r="O17" t="n">
         <v>16</v>
@@ -1264,46 +1264,46 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5150143504142761</v>
+        <v>0.5347785353660583</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7727773785591125</v>
+        <v>0.7698088884353638</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8384384512901306</v>
+        <v>0.8192506432533264</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7619395852088928</v>
+        <v>0.7765187621116638</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9510971903800964</v>
+        <v>0.9480391144752502</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7993970513343811</v>
+        <v>0.7956010699272156</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1890183091163635</v>
+        <v>0.7624531984329224</v>
       </c>
       <c r="H18" t="n">
-        <v>0.55281001329422</v>
+        <v>0.5925443172454834</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7767575979232788</v>
+        <v>0.7686644792556763</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7381361126899719</v>
+        <v>0.7248105406761169</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8123102784156799</v>
+        <v>0.8101893663406372</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9569623470306396</v>
+        <v>0.9516430497169495</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7734832763671875</v>
+        <v>0.7651248574256897</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2189294099807739</v>
+        <v>0.7283073663711548</v>
       </c>
       <c r="O18" t="n">
         <v>17</v>
@@ -1311,46 +1311,46 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.5014562010765076</v>
+        <v>0.5161417126655579</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7758421897888184</v>
+        <v>0.7713804244995117</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8375378251075745</v>
+        <v>0.834055483341217</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7643581032752991</v>
+        <v>0.7689102292060852</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9520566463470459</v>
+        <v>0.9491608738899231</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8014048337936401</v>
+        <v>0.80035799741745</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1811614334583282</v>
+        <v>0.7678253054618835</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5480490326881409</v>
+        <v>0.5690723061561584</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7763924598693848</v>
+        <v>0.7742324471473694</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7305633425712585</v>
+        <v>0.7317134737968445</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8273748159408569</v>
+        <v>0.8164409399032593</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9591149687767029</v>
+        <v>0.955197811126709</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7759924530982971</v>
+        <v>0.7717592716217041</v>
       </c>
       <c r="N19" t="n">
-        <v>0.2283334285020828</v>
+        <v>0.7360081672668457</v>
       </c>
       <c r="O19" t="n">
         <v>18</v>
@@ -1358,46 +1358,46 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5028917193412781</v>
+        <v>0.5041464567184448</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7783109545707703</v>
+        <v>0.7793590426445007</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8243906497955322</v>
+        <v>0.8362346887588501</v>
       </c>
       <c r="D20" t="n">
-        <v>0.772718608379364</v>
+        <v>0.7698649168014526</v>
       </c>
       <c r="E20" t="n">
-        <v>0.952638566493988</v>
+        <v>0.9490329027175903</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7994797825813293</v>
+        <v>0.8040509819984436</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1828513443470001</v>
+        <v>0.7720926403999329</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5554532408714294</v>
+        <v>0.5862799882888794</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7775965929031372</v>
+        <v>0.7662838101387024</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7696493864059448</v>
+        <v>0.7020450830459595</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7716224193572998</v>
+        <v>0.8313326239585876</v>
       </c>
       <c r="L20" t="n">
-        <v>0.9529621005058289</v>
+        <v>0.9536137580871582</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7706604599952698</v>
+        <v>0.7612721920013428</v>
       </c>
       <c r="N20" t="n">
-        <v>0.204430103302002</v>
+        <v>0.7252699732780457</v>
       </c>
       <c r="O20" t="n">
         <v>19</v>
@@ -1405,46 +1405,46 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5081046223640442</v>
+        <v>0.5106465816497803</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7757850885391235</v>
+        <v>0.7750771045684814</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8319093585014343</v>
+        <v>0.8258557319641113</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7589772343635559</v>
+        <v>0.7717748284339905</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9484784007072449</v>
+        <v>0.9484036564826965</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7975095510482788</v>
+        <v>0.7989512085914612</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1805209517478943</v>
+        <v>0.7671775221824646</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5563498139381409</v>
+        <v>0.5500329732894897</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7747523784637451</v>
+        <v>0.7787073254585266</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7433190941810608</v>
+        <v>0.7331978678703308</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7932422161102295</v>
+        <v>0.8206033110618591</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9537307024002075</v>
+        <v>0.9577113389968872</v>
       </c>
       <c r="M21" t="n">
-        <v>0.7674990892410278</v>
+        <v>0.7744580507278442</v>
       </c>
       <c r="N21" t="n">
-        <v>0.2143900990486145</v>
+        <v>0.7409460544586182</v>
       </c>
       <c r="O21" t="n">
         <v>20</v>
@@ -1452,46 +1452,46 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4908829927444458</v>
+        <v>0.4996848106384277</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7811511754989624</v>
+        <v>0.7764816284179688</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8333463072776794</v>
+        <v>0.8405442237854004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7690951824188232</v>
+        <v>0.7655852437019348</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9528201222419739</v>
+        <v>0.9495538473129272</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8026583790779114</v>
+        <v>0.8034976124763489</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1743162125349045</v>
+        <v>0.7710755467414856</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5564262866973877</v>
+        <v>0.5280941724777222</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7659408450126648</v>
+        <v>0.7813633680343628</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6983688473701477</v>
+        <v>0.7419998049736023</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8461747765541077</v>
+        <v>0.8175583481788635</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9584525227546692</v>
+        <v>0.9582177400588989</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7651621103286743</v>
+        <v>0.777980625629425</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2336613982915878</v>
+        <v>0.7452064156532288</v>
       </c>
       <c r="O22" t="n">
         <v>21</v>
@@ -1499,46 +1499,46 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4750149846076965</v>
+        <v>0.4824106395244598</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7800447344779968</v>
+        <v>0.782447338104248</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8455600738525391</v>
+        <v>0.8331156969070435</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7734829187393188</v>
+        <v>0.7796627879142761</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9561557769775391</v>
+        <v>0.953950822353363</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8074430823326111</v>
+        <v>0.8072254657745361</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1691430956125259</v>
+        <v>0.7759677767753601</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5342991352081299</v>
+        <v>0.5509912371635437</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7791600823402405</v>
+        <v>0.7722878456115723</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7441470623016357</v>
+        <v>0.7236863970756531</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8110376596450806</v>
+        <v>0.8152589797973633</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9570885300636292</v>
+        <v>0.9559760093688965</v>
       </c>
       <c r="M23" t="n">
-        <v>0.7761375904083252</v>
+        <v>0.7667880654335022</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2051913738250732</v>
+        <v>0.7320497035980225</v>
       </c>
       <c r="O23" t="n">
         <v>22</v>
@@ -1546,46 +1546,46 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.475630909204483</v>
+        <v>0.474027544260025</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7797980904579163</v>
+        <v>0.7863415479660034</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8415612578392029</v>
+        <v>0.8449261784553528</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7670227289199829</v>
+        <v>0.781043529510498</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9534693956375122</v>
+        <v>0.9538964033126831</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8048274517059326</v>
+        <v>0.8134909868240356</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1689218580722809</v>
+        <v>0.7820389270782471</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5220111012458801</v>
+        <v>0.5325468182563782</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7828570604324341</v>
+        <v>0.7778024673461914</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7651178240776062</v>
+        <v>0.7433233857154846</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7881903648376465</v>
+        <v>0.8104643225669861</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9565842151641846</v>
+        <v>0.9560645818710327</v>
       </c>
       <c r="M24" t="n">
-        <v>0.7765008807182312</v>
+        <v>0.7754642963409424</v>
       </c>
       <c r="N24" t="n">
-        <v>0.1871411353349686</v>
+        <v>0.7415022253990173</v>
       </c>
       <c r="O24" t="n">
         <v>23</v>
@@ -1593,46 +1593,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4627470672130585</v>
+        <v>0.4789295196533203</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7839566469192505</v>
+        <v>0.7790259122848511</v>
       </c>
       <c r="C25" t="n">
-        <v>0.842107892036438</v>
+        <v>0.8318945169448853</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7753164172172546</v>
+        <v>0.7813248038291931</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9551518559455872</v>
+        <v>0.9553212523460388</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8106846213340759</v>
+        <v>0.8049045205116272</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1620604991912842</v>
+        <v>0.7738685011863708</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5668469071388245</v>
+        <v>0.5335661768913269</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7647112607955933</v>
+        <v>0.7785918116569519</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7011073231697083</v>
+        <v>0.7449640035629272</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8298546075820923</v>
+        <v>0.8066827654838562</v>
       </c>
       <c r="L25" t="n">
-        <v>0.9564947485923767</v>
+        <v>0.9551675915718079</v>
       </c>
       <c r="M25" t="n">
-        <v>0.760039746761322</v>
+        <v>0.7746113538742065</v>
       </c>
       <c r="N25" t="n">
-        <v>0.2486276179552078</v>
+        <v>0.7408576011657715</v>
       </c>
       <c r="O25" t="n">
         <v>24</v>
@@ -1640,46 +1640,46 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4468058049678802</v>
+        <v>0.4736759662628174</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7924946546554565</v>
+        <v>0.7768391370773315</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8417794108390808</v>
+        <v>0.8524397015571594</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7873246669769287</v>
+        <v>0.7674764394760132</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9601369500160217</v>
+        <v>0.952997624874115</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8169963359832764</v>
+        <v>0.8088067173957825</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1594105213880539</v>
+        <v>0.7785807251930237</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5306806564331055</v>
+        <v>0.5590668916702271</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7750399112701416</v>
+        <v>0.7659785747528076</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7293358445167542</v>
+        <v>0.7090440392494202</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8273069262504578</v>
+        <v>0.8180698156356812</v>
       </c>
       <c r="L26" t="n">
-        <v>0.9580987691879272</v>
+        <v>0.9557477235794067</v>
       </c>
       <c r="M26" t="n">
-        <v>0.7752520442008972</v>
+        <v>0.7596566081047058</v>
       </c>
       <c r="N26" t="n">
-        <v>0.2135228365659714</v>
+        <v>0.7254846692085266</v>
       </c>
       <c r="O26" t="n">
         <v>25</v>
@@ -1687,46 +1687,46 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.450197696685791</v>
+        <v>0.4604264497756958</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7882581353187561</v>
+        <v>0.7840429544448853</v>
       </c>
       <c r="C27" t="n">
-        <v>0.843441367149353</v>
+        <v>0.8449376821517944</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7794004678726196</v>
+        <v>0.7765699625015259</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9590537548065186</v>
+        <v>0.9547207355499268</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8123619556427002</v>
+        <v>0.8120933771133423</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1574587672948837</v>
+        <v>0.7815955281257629</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5119727253913879</v>
+        <v>0.5547522306442261</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7856379747390747</v>
+        <v>0.7723246812820435</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7729188203811646</v>
+        <v>0.7322692275047302</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7910148501396179</v>
+        <v>0.8036462068557739</v>
       </c>
       <c r="L27" t="n">
-        <v>0.957744300365448</v>
+        <v>0.9542668461799622</v>
       </c>
       <c r="M27" t="n">
-        <v>0.781869113445282</v>
+        <v>0.7663223147392273</v>
       </c>
       <c r="N27" t="n">
-        <v>0.1818089634180069</v>
+        <v>0.7309752702713013</v>
       </c>
       <c r="O27" t="n">
         <v>26</v>
@@ -1734,46 +1734,46 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4589537680149078</v>
+        <v>0.462541788816452</v>
       </c>
       <c r="B28" t="n">
-        <v>0.781501293182373</v>
+        <v>0.7843443751335144</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8485530614852905</v>
+        <v>0.8380087018013</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7689430117607117</v>
+        <v>0.7780480980873108</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9556368589401245</v>
+        <v>0.9567620158195496</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8102559447288513</v>
+        <v>0.8089205026626587</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1614639312028885</v>
+        <v>0.7787256240844727</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5345830917358398</v>
+        <v>0.5128055214881897</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7731450796127319</v>
+        <v>0.78633713722229</v>
       </c>
       <c r="J28" t="n">
-        <v>0.7142383456230164</v>
+        <v>0.7567119598388672</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8441362977027893</v>
+        <v>0.8139188289642334</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9596905112266541</v>
+        <v>0.9589444994926453</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7737478017807007</v>
+        <v>0.7842826843261719</v>
       </c>
       <c r="N28" t="n">
-        <v>0.2258759588003159</v>
+        <v>0.7513877153396606</v>
       </c>
       <c r="O28" t="n">
         <v>27</v>
@@ -1781,46 +1781,46 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4483429193496704</v>
+        <v>0.4630606472492218</v>
       </c>
       <c r="B29" t="n">
-        <v>0.787010669708252</v>
+        <v>0.7837538719177246</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8512862324714661</v>
+        <v>0.8375633955001831</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7810453772544861</v>
+        <v>0.7744779586791992</v>
       </c>
       <c r="E29" t="n">
-        <v>0.959155261516571</v>
+        <v>0.9571155309677124</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8171017169952393</v>
+        <v>0.8081573247909546</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1589127331972122</v>
+        <v>0.7781223058700562</v>
       </c>
       <c r="H29" t="n">
-        <v>0.5081352591514587</v>
+        <v>0.5360804200172424</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7834182977676392</v>
+        <v>0.7761135101318359</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7422324419021606</v>
+        <v>0.7552266120910645</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8281832337379456</v>
+        <v>0.7915709018707275</v>
       </c>
       <c r="L29" t="n">
-        <v>0.9607706665992737</v>
+        <v>0.9538543820381165</v>
       </c>
       <c r="M29" t="n">
-        <v>0.7828413844108582</v>
+        <v>0.7729384303092957</v>
       </c>
       <c r="N29" t="n">
-        <v>0.2030198127031326</v>
+        <v>0.7382779717445374</v>
       </c>
       <c r="O29" t="n">
         <v>28</v>
@@ -1828,46 +1828,46 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4327896535396576</v>
+        <v>0.4507148861885071</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7913323640823364</v>
+        <v>0.7830370664596558</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8511067032814026</v>
+        <v>0.8545019030570984</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7815738320350647</v>
+        <v>0.77260822057724</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9613004922866821</v>
+        <v>0.9576627016067505</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8181433081626892</v>
+        <v>0.8144410848617554</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1501545459032059</v>
+        <v>0.7835821509361267</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5231331586837769</v>
+        <v>0.5346000790596008</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7804955840110779</v>
+        <v>0.7759488821029663</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7416948676109314</v>
+        <v>0.7402388453483582</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8238962292671204</v>
+        <v>0.803231418132782</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9597833752632141</v>
+        <v>0.9556589722633362</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7806376814842224</v>
+        <v>0.7704870700836182</v>
       </c>
       <c r="N30" t="n">
-        <v>0.2129788547754288</v>
+        <v>0.7356735467910767</v>
       </c>
       <c r="O30" t="n">
         <v>29</v>
@@ -1875,46 +1875,46 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4289979040622711</v>
+        <v>0.4513526856899261</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7895419597625732</v>
+        <v>0.7895004153251648</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8546077013015747</v>
+        <v>0.8373388648033142</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7815849184989929</v>
+        <v>0.778833270072937</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9617242217063904</v>
+        <v>0.9568533301353455</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8190536499023438</v>
+        <v>0.8119654655456543</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1489233523607254</v>
+        <v>0.7819548845291138</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5187320709228516</v>
+        <v>0.5373445153236389</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7786696553230286</v>
+        <v>0.7762793302536011</v>
       </c>
       <c r="J31" t="n">
-        <v>0.7363285422325134</v>
+        <v>0.7473359107971191</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8163207173347473</v>
+        <v>0.8046367168426514</v>
       </c>
       <c r="L31" t="n">
-        <v>0.958996057510376</v>
+        <v>0.9554105401039124</v>
       </c>
       <c r="M31" t="n">
-        <v>0.7742440104484558</v>
+        <v>0.7748841047286987</v>
       </c>
       <c r="N31" t="n">
-        <v>0.1923257112503052</v>
+        <v>0.7395601272583008</v>
       </c>
       <c r="O31" t="n">
         <v>30</v>
@@ -1922,46 +1922,46 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4322719573974609</v>
+        <v>0.44202920794487</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7854584455490112</v>
+        <v>0.7903983592987061</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8571996688842773</v>
+        <v>0.8510584235191345</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7738038897514343</v>
+        <v>0.78011155128479</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9595536589622498</v>
+        <v>0.9586058259010315</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8184001445770264</v>
+        <v>0.8173816204071045</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1494152545928955</v>
+        <v>0.7878525257110596</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5254808664321899</v>
+        <v>0.5263184905052185</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7781868577003479</v>
+        <v>0.7750455141067505</v>
       </c>
       <c r="J32" t="n">
-        <v>0.7731081247329712</v>
+        <v>0.7269333004951477</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7697210311889648</v>
+        <v>0.8212859630584717</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9540172815322876</v>
+        <v>0.9574031829833984</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7714309692382812</v>
+        <v>0.7712303996086121</v>
       </c>
       <c r="N32" t="n">
-        <v>0.180638313293457</v>
+        <v>0.7371649146080017</v>
       </c>
       <c r="O32" t="n">
         <v>31</v>
@@ -1969,46 +1969,46 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.430476039648056</v>
+        <v>0.4406907260417938</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7862846255302429</v>
+        <v>0.787371039390564</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8494030237197876</v>
+        <v>0.8594716787338257</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7842490673065186</v>
+        <v>0.7783210277557373</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9624288082122803</v>
+        <v>0.959280252456665</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8175643682479858</v>
+        <v>0.8186497688293457</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1490996479988098</v>
+        <v>0.7889637351036072</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5009039640426636</v>
+        <v>0.5091213583946228</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7848498225212097</v>
+        <v>0.7815148830413818</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7572522163391113</v>
+        <v>0.7454778552055359</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8108384013175964</v>
+        <v>0.809058666229248</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9598582983016968</v>
+        <v>0.9568681716918945</v>
       </c>
       <c r="M33" t="n">
-        <v>0.7831273078918457</v>
+        <v>0.7759919166564941</v>
       </c>
       <c r="N33" t="n">
-        <v>0.1844017654657364</v>
+        <v>0.743008017539978</v>
       </c>
       <c r="O33" t="n">
         <v>32</v>
@@ -2016,46 +2016,46 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4333951771259308</v>
+        <v>0.4304234981536865</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7854562401771545</v>
+        <v>0.7918947339057922</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8541530966758728</v>
+        <v>0.8579280972480774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7762690186500549</v>
+        <v>0.7790493369102478</v>
       </c>
       <c r="E34" t="n">
-        <v>0.959603488445282</v>
+        <v>0.9599535465240479</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8171452283859253</v>
+        <v>0.8205146193504333</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1496218293905258</v>
+        <v>0.7918047308921814</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5245479941368103</v>
+        <v>0.5226955413818359</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7760950326919556</v>
+        <v>0.7773255705833435</v>
       </c>
       <c r="J34" t="n">
-        <v>0.731057345867157</v>
+        <v>0.7444417476654053</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8151400089263916</v>
+        <v>0.8088411092758179</v>
       </c>
       <c r="L34" t="n">
-        <v>0.9580581188201904</v>
+        <v>0.9558218717575073</v>
       </c>
       <c r="M34" t="n">
-        <v>0.7708204388618469</v>
+        <v>0.7753162384033203</v>
       </c>
       <c r="N34" t="n">
-        <v>0.2112155109643936</v>
+        <v>0.7410614490509033</v>
       </c>
       <c r="O34" t="n">
         <v>33</v>
@@ -2063,46 +2063,46 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4240758419036865</v>
+        <v>0.4289612770080566</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7911520004272461</v>
+        <v>0.7917795777320862</v>
       </c>
       <c r="C35" t="n">
-        <v>0.856654167175293</v>
+        <v>0.858218789100647</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7816470861434937</v>
+        <v>0.7747883200645447</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9606185555458069</v>
+        <v>0.9585858583450317</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8214896321296692</v>
+        <v>0.8208532333374023</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1456616073846817</v>
+        <v>0.7922404408454895</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5202627778053284</v>
+        <v>0.5061613917350769</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7758179903030396</v>
+        <v>0.7821419239044189</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7254032492637634</v>
+        <v>0.7405582070350647</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8254228830337524</v>
+        <v>0.8242579102516174</v>
       </c>
       <c r="L35" t="n">
-        <v>0.9590950608253479</v>
+        <v>0.9592928886413574</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7721784710884094</v>
+        <v>0.7801508903503418</v>
       </c>
       <c r="N35" t="n">
-        <v>0.2030220180749893</v>
+        <v>0.7460372447967529</v>
       </c>
       <c r="O35" t="n">
         <v>34</v>
@@ -2110,46 +2110,46 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.4206101298332214</v>
+        <v>0.4396793246269226</v>
       </c>
       <c r="B36" t="n">
-        <v>0.794780433177948</v>
+        <v>0.7863771915435791</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8524419665336609</v>
+        <v>0.8521897792816162</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7864540219306946</v>
+        <v>0.7781128883361816</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9625048041343689</v>
+        <v>0.9595069289207458</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8215834498405457</v>
+        <v>0.8156768083572388</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1448059231042862</v>
+        <v>0.7865464687347412</v>
       </c>
       <c r="H36" t="n">
-        <v>0.5317073464393616</v>
+        <v>0.5260768532752991</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7685012817382812</v>
+        <v>0.7808740139007568</v>
       </c>
       <c r="J36" t="n">
-        <v>0.6967154145240784</v>
+        <v>0.7558150887489319</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8539159893989563</v>
+        <v>0.7956096529960632</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9620307087898254</v>
+        <v>0.9548772573471069</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7673329710960388</v>
+        <v>0.7752208709716797</v>
       </c>
       <c r="N36" t="n">
-        <v>0.2296796441078186</v>
+        <v>0.7413759231567383</v>
       </c>
       <c r="O36" t="n">
         <v>35</v>
@@ -2157,46 +2157,46 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4281487464904785</v>
+        <v>0.4255786538124084</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7952519655227661</v>
+        <v>0.8001396656036377</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8504669070243835</v>
+        <v>0.8545196056365967</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7861047983169556</v>
+        <v>0.7855538725852966</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9615705013275146</v>
+        <v>0.9599469304084778</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8207312226295471</v>
+        <v>0.8247703909873962</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1479381173849106</v>
+        <v>0.7961218357086182</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5183249711990356</v>
+        <v>0.5234233140945435</v>
       </c>
       <c r="I37" t="n">
-        <v>0.7689211368560791</v>
+        <v>0.7767373323440552</v>
       </c>
       <c r="J37" t="n">
-        <v>0.6968432068824768</v>
+        <v>0.7583597302436829</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8514388203620911</v>
+        <v>0.7852171659469604</v>
       </c>
       <c r="L37" t="n">
-        <v>0.961747407913208</v>
+        <v>0.954259991645813</v>
       </c>
       <c r="M37" t="n">
-        <v>0.7663881182670593</v>
+        <v>0.7715601325035095</v>
       </c>
       <c r="N37" t="n">
-        <v>0.2122582793235779</v>
+        <v>0.7375038862228394</v>
       </c>
       <c r="O37" t="n">
         <v>36</v>
@@ -2204,46 +2204,46 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4183682799339294</v>
+        <v>0.4155532419681549</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7907645702362061</v>
+        <v>0.7933790683746338</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8611510396003723</v>
+        <v>0.8748852610588074</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7823305726051331</v>
+        <v>0.7767423987388611</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9631572961807251</v>
+        <v>0.9590094089508057</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8231621980667114</v>
+        <v>0.8295673131942749</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1431257724761963</v>
+        <v>0.8009779453277588</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5500306487083435</v>
+        <v>0.5147409439086914</v>
       </c>
       <c r="I38" t="n">
-        <v>0.7636423707008362</v>
+        <v>0.782497227191925</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6872381567955017</v>
+        <v>0.7546150684356689</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8453474044799805</v>
+        <v>0.8049585223197937</v>
       </c>
       <c r="L38" t="n">
-        <v>0.9579536914825439</v>
+        <v>0.9540515542030334</v>
       </c>
       <c r="M38" t="n">
-        <v>0.7581302523612976</v>
+        <v>0.7789967656135559</v>
       </c>
       <c r="N38" t="n">
-        <v>0.2366864681243896</v>
+        <v>0.7451102137565613</v>
       </c>
       <c r="O38" t="n">
         <v>37</v>
@@ -2251,46 +2251,46 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.4078726470470428</v>
+        <v>0.4127235412597656</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7985048294067383</v>
+        <v>0.7870555520057678</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8589825034141541</v>
+        <v>0.8727849721908569</v>
       </c>
       <c r="D39" t="n">
-        <v>0.794122576713562</v>
+        <v>0.7732234001159668</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9649730324745178</v>
+        <v>0.9630482792854309</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8280850052833557</v>
+        <v>0.824638843536377</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1424509584903717</v>
+        <v>0.7965173125267029</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5163392424583435</v>
+        <v>0.5400359034538269</v>
       </c>
       <c r="I39" t="n">
-        <v>0.7764180898666382</v>
+        <v>0.7641128301620483</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7267290353775024</v>
+        <v>0.6928999423980713</v>
       </c>
       <c r="K39" t="n">
-        <v>0.825613796710968</v>
+        <v>0.8324717283248901</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9595682621002197</v>
+        <v>0.9570222496986389</v>
       </c>
       <c r="M39" t="n">
-        <v>0.7730246186256409</v>
+        <v>0.7563214898109436</v>
       </c>
       <c r="N39" t="n">
-        <v>0.2014149576425552</v>
+        <v>0.7221457958221436</v>
       </c>
       <c r="O39" t="n">
         <v>38</v>
@@ -2298,46 +2298,46 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.4056206941604614</v>
+        <v>0.4151593744754791</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7981308698654175</v>
+        <v>0.7916595935821533</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8571645617485046</v>
+        <v>0.8651296496391296</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7929204702377319</v>
+        <v>0.7750405073165894</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9652209281921387</v>
+        <v>0.9617721438407898</v>
       </c>
       <c r="F40" t="n">
-        <v>0.828463077545166</v>
+        <v>0.8231271505355835</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1390729397535324</v>
+        <v>0.7954221367835999</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5035637021064758</v>
+        <v>0.5075430274009705</v>
       </c>
       <c r="I40" t="n">
-        <v>0.7823479771614075</v>
+        <v>0.7761414051055908</v>
       </c>
       <c r="J40" t="n">
-        <v>0.7506833076477051</v>
+        <v>0.7234790325164795</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8090712428092957</v>
+        <v>0.8364650011062622</v>
       </c>
       <c r="L40" t="n">
-        <v>0.9598335027694702</v>
+        <v>0.9602854251861572</v>
       </c>
       <c r="M40" t="n">
-        <v>0.7788199782371521</v>
+        <v>0.7759239673614502</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1909767985343933</v>
+        <v>0.7407882213592529</v>
       </c>
       <c r="O40" t="n">
         <v>39</v>
@@ -2345,46 +2345,46 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4010603725910187</v>
+        <v>0.4212766885757446</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8045291900634766</v>
+        <v>0.7894909381866455</v>
       </c>
       <c r="C41" t="n">
-        <v>0.856113612651825</v>
+        <v>0.8579602837562561</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8036670684814453</v>
+        <v>0.7798623442649841</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9677022099494934</v>
+        <v>0.9623740315437317</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8318853378295898</v>
+        <v>0.8200502395629883</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1393462717533112</v>
+        <v>0.7917029857635498</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4975742399692535</v>
+        <v>0.5158413052558899</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7801463007926941</v>
+        <v>0.7786257863044739</v>
       </c>
       <c r="J41" t="n">
-        <v>0.7236104011535645</v>
+        <v>0.7547822594642639</v>
       </c>
       <c r="K41" t="n">
-        <v>0.83883136510849</v>
+        <v>0.7980086207389832</v>
       </c>
       <c r="L41" t="n">
-        <v>0.9614914059638977</v>
+        <v>0.9576636552810669</v>
       </c>
       <c r="M41" t="n">
-        <v>0.7769739031791687</v>
+        <v>0.7757695317268372</v>
       </c>
       <c r="N41" t="n">
-        <v>0.189909815788269</v>
+        <v>0.7414359450340271</v>
       </c>
       <c r="O41" t="n">
         <v>40</v>
@@ -2392,46 +2392,46 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.401117205619812</v>
+        <v>0.41301029920578</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7990748882293701</v>
+        <v>0.7957613468170166</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8632864952087402</v>
+        <v>0.865012526512146</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7914494872093201</v>
+        <v>0.7800387144088745</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9659075736999512</v>
+        <v>0.9624050259590149</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8301920294761658</v>
+        <v>0.8255003690719604</v>
       </c>
       <c r="G42" t="n">
-        <v>0.137478768825531</v>
+        <v>0.7967810034751892</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5127382874488831</v>
+        <v>0.5397231578826904</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7736750245094299</v>
+        <v>0.769436240196228</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7255363464355469</v>
+        <v>0.7189602851867676</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8231204152107239</v>
+        <v>0.8149741888046265</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9606010913848877</v>
+        <v>0.9548946022987366</v>
       </c>
       <c r="M42" t="n">
-        <v>0.7712687253952026</v>
+        <v>0.7639595866203308</v>
       </c>
       <c r="N42" t="n">
-        <v>0.199706181883812</v>
+        <v>0.7281609177589417</v>
       </c>
       <c r="O42" t="n">
         <v>41</v>
@@ -2439,46 +2439,46 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.4015138447284698</v>
+        <v>0.4079967737197876</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7989516258239746</v>
+        <v>0.794105052947998</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8554809093475342</v>
+        <v>0.8649044632911682</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7950687408447266</v>
+        <v>0.7890921831130981</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9670499563217163</v>
+        <v>0.9656648635864258</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8277246952056885</v>
+        <v>0.8274614214897156</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1372556835412979</v>
+        <v>0.7999289631843567</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5073872804641724</v>
+        <v>0.5007544159889221</v>
       </c>
       <c r="I43" t="n">
-        <v>0.7800873517990112</v>
+        <v>0.7825057506561279</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7336304783821106</v>
+        <v>0.7418102025985718</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8244088292121887</v>
+        <v>0.8213933110237122</v>
       </c>
       <c r="L43" t="n">
-        <v>0.959972620010376</v>
+        <v>0.9594899415969849</v>
       </c>
       <c r="M43" t="n">
-        <v>0.7763592004776001</v>
+        <v>0.7795667052268982</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1942745298147202</v>
+        <v>0.7460474371910095</v>
       </c>
       <c r="O43" t="n">
         <v>42</v>
@@ -2486,46 +2486,46 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.3964712917804718</v>
+        <v>0.4059129357337952</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7973567247390747</v>
+        <v>0.8004122972488403</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8666361570358276</v>
+        <v>0.8556385636329651</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7873507738113403</v>
+        <v>0.7961520552635193</v>
       </c>
       <c r="E44" t="n">
-        <v>0.966209888458252</v>
+        <v>0.9648604393005371</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8299204111099243</v>
+        <v>0.8289673328399658</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1355035454034805</v>
+        <v>0.8013700246810913</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5064330697059631</v>
+        <v>0.5365659594535828</v>
       </c>
       <c r="I44" t="n">
-        <v>0.7815195322036743</v>
+        <v>0.7662736177444458</v>
       </c>
       <c r="J44" t="n">
-        <v>0.7433342933654785</v>
+        <v>0.7082974910736084</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8184357285499573</v>
+        <v>0.8208755254745483</v>
       </c>
       <c r="L44" t="n">
-        <v>0.9600942134857178</v>
+        <v>0.9569593071937561</v>
       </c>
       <c r="M44" t="n">
-        <v>0.7790718674659729</v>
+        <v>0.7604429125785828</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1915332823991776</v>
+        <v>0.725350558757782</v>
       </c>
       <c r="O44" t="n">
         <v>43</v>
@@ -2533,46 +2533,46 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4022490382194519</v>
+        <v>0.4043160676956177</v>
       </c>
       <c r="B45" t="n">
-        <v>0.793293833732605</v>
+        <v>0.7977498769760132</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8645606637001038</v>
+        <v>0.8624438643455505</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7830070853233337</v>
+        <v>0.7843992710113525</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9654845595359802</v>
+        <v>0.9638078212738037</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8260220289230347</v>
+        <v>0.8271514773368835</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1363810747861862</v>
+        <v>0.8000354170799255</v>
       </c>
       <c r="H45" t="n">
-        <v>0.5075882077217102</v>
+        <v>0.519996702671051</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7799375653266907</v>
+        <v>0.7743110656738281</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7453816533088684</v>
+        <v>0.7138180136680603</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8141026496887207</v>
+        <v>0.8422621488571167</v>
       </c>
       <c r="L45" t="n">
-        <v>0.958966076374054</v>
+        <v>0.9592636227607727</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7782108187675476</v>
+        <v>0.772713840007782</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1917733997106552</v>
+        <v>0.7388266921043396</v>
       </c>
       <c r="O45" t="n">
         <v>44</v>
@@ -2580,46 +2580,46 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.3925819396972656</v>
+        <v>0.4006774425506592</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7986657023429871</v>
+        <v>0.7969870567321777</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8641909956932068</v>
+        <v>0.8641836047172546</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7868053317070007</v>
+        <v>0.7889558076858521</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9673985838890076</v>
+        <v>0.9657357335090637</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8295031189918518</v>
+        <v>0.8290109634399414</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1328819394111633</v>
+        <v>0.8014618158340454</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5066470503807068</v>
+        <v>0.5171297192573547</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7794991731643677</v>
+        <v>0.7768614292144775</v>
       </c>
       <c r="J46" t="n">
-        <v>0.7436299920082092</v>
+        <v>0.7256036400794983</v>
       </c>
       <c r="K46" t="n">
-        <v>0.8137069940567017</v>
+        <v>0.8337603807449341</v>
       </c>
       <c r="L46" t="n">
-        <v>0.9602674841880798</v>
+        <v>0.9571638107299805</v>
       </c>
       <c r="M46" t="n">
-        <v>0.777092456817627</v>
+        <v>0.7759163975715637</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1952555626630783</v>
+        <v>0.7407860159873962</v>
       </c>
       <c r="O46" t="n">
         <v>45</v>
@@ -2627,46 +2627,46 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.4005537331104279</v>
+        <v>0.4019207954406738</v>
       </c>
       <c r="B47" t="n">
-        <v>0.790494441986084</v>
+        <v>0.8007239103317261</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8695008754730225</v>
+        <v>0.8599364757537842</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7761357426643372</v>
+        <v>0.7839964032173157</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9662195444107056</v>
+        <v>0.9643790721893311</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8248945474624634</v>
+        <v>0.8275412321090698</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1345199644565582</v>
+        <v>0.8000791668891907</v>
       </c>
       <c r="H47" t="n">
-        <v>0.5080829858779907</v>
+        <v>0.5047371983528137</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7831969857215881</v>
+        <v>0.7813483476638794</v>
       </c>
       <c r="J47" t="n">
-        <v>0.7600318789482117</v>
+        <v>0.7465609908103943</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8046669363975525</v>
+        <v>0.8133676052093506</v>
       </c>
       <c r="L47" t="n">
-        <v>0.9585835933685303</v>
+        <v>0.9596301317214966</v>
       </c>
       <c r="M47" t="n">
-        <v>0.7817103266716003</v>
+        <v>0.7785128951072693</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1955203860998154</v>
+        <v>0.7446227073669434</v>
       </c>
       <c r="O47" t="n">
         <v>46</v>
@@ -2674,46 +2674,46 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.3953030109405518</v>
+        <v>0.3929534554481506</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7983219623565674</v>
+        <v>0.8002748489379883</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8622872829437256</v>
+        <v>0.8669557571411133</v>
       </c>
       <c r="D48" t="n">
-        <v>0.793255090713501</v>
+        <v>0.7881708145141602</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9679834246635437</v>
+        <v>0.9666432738304138</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8295906186103821</v>
+        <v>0.8313143253326416</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1347484737634659</v>
+        <v>0.8043304681777954</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5211244225502014</v>
+        <v>0.5077294111251831</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7702960968017578</v>
+        <v>0.7812919616699219</v>
       </c>
       <c r="J48" t="n">
-        <v>0.7010765671730042</v>
+        <v>0.7444306612014771</v>
       </c>
       <c r="K48" t="n">
-        <v>0.848021924495697</v>
+        <v>0.8115268349647522</v>
       </c>
       <c r="L48" t="n">
-        <v>0.9595397114753723</v>
+        <v>0.9593199491500854</v>
       </c>
       <c r="M48" t="n">
-        <v>0.7675930857658386</v>
+        <v>0.7765558958053589</v>
       </c>
       <c r="N48" t="n">
-        <v>0.2171200066804886</v>
+        <v>0.7425519227981567</v>
       </c>
       <c r="O48" t="n">
         <v>47</v>
@@ -2721,46 +2721,46 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.3918022215366364</v>
+        <v>0.3873176574707031</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7993890047073364</v>
+        <v>0.8057485818862915</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8694438338279724</v>
+        <v>0.8667389750480652</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7966547608375549</v>
+        <v>0.7977798581123352</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9687453508377075</v>
+        <v>0.9678369760513306</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8336292505264282</v>
+        <v>0.8347272276878357</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1340397000312805</v>
+        <v>0.8079739809036255</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5114578604698181</v>
+        <v>0.4962743818759918</v>
       </c>
       <c r="I49" t="n">
-        <v>0.781883180141449</v>
+        <v>0.7825381755828857</v>
       </c>
       <c r="J49" t="n">
-        <v>0.7627739906311035</v>
+        <v>0.7516475915908813</v>
       </c>
       <c r="K49" t="n">
-        <v>0.7907854318618774</v>
+        <v>0.8161871433258057</v>
       </c>
       <c r="L49" t="n">
-        <v>0.9563919901847839</v>
+        <v>0.9608877897262573</v>
       </c>
       <c r="M49" t="n">
-        <v>0.7764917612075806</v>
+        <v>0.7825899124145508</v>
       </c>
       <c r="N49" t="n">
-        <v>0.185217022895813</v>
+        <v>0.7486721277236938</v>
       </c>
       <c r="O49" t="n">
         <v>48</v>
@@ -2768,46 +2768,46 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.3893952667713165</v>
+        <v>0.3869125545024872</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8016277551651001</v>
+        <v>0.8047181963920593</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8678927421569824</v>
+        <v>0.8660934567451477</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7898861169815063</v>
+        <v>0.7951388955116272</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9681350588798523</v>
+        <v>0.9678435921669006</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8319101929664612</v>
+        <v>0.8344159722328186</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1326926648616791</v>
+        <v>0.807355523109436</v>
       </c>
       <c r="H50" t="n">
-        <v>0.4894711971282959</v>
+        <v>0.5146235227584839</v>
       </c>
       <c r="I50" t="n">
-        <v>0.786180853843689</v>
+        <v>0.7849718332290649</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7524500489234924</v>
+        <v>0.794324517250061</v>
       </c>
       <c r="K50" t="n">
-        <v>0.8141793608665466</v>
+        <v>0.7645206451416016</v>
       </c>
       <c r="L50" t="n">
-        <v>0.9615472555160522</v>
+        <v>0.9553610682487488</v>
       </c>
       <c r="M50" t="n">
-        <v>0.7821377515792847</v>
+        <v>0.7791675925254822</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1814694851636887</v>
+        <v>0.7471652030944824</v>
       </c>
       <c r="O50" t="n">
         <v>49</v>
@@ -2815,46 +2815,46 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.3835340738296509</v>
+        <v>0.3983879089355469</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8020651340484619</v>
+        <v>0.7967998385429382</v>
       </c>
       <c r="C51" t="n">
-        <v>0.868105947971344</v>
+        <v>0.865683376789093</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7948968410491943</v>
+        <v>0.7876436710357666</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9689897894859314</v>
+        <v>0.9662818312644958</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8352777361869812</v>
+        <v>0.829479455947876</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1300346255302429</v>
+        <v>0.8020743727684021</v>
       </c>
       <c r="H51" t="n">
-        <v>0.4971239566802979</v>
+        <v>0.5000622868537903</v>
       </c>
       <c r="I51" t="n">
-        <v>0.782130241394043</v>
+        <v>0.7851985692977905</v>
       </c>
       <c r="J51" t="n">
-        <v>0.7497737407684326</v>
+        <v>0.760661780834198</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8117640018463135</v>
+        <v>0.8058498501777649</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9603757858276367</v>
+        <v>0.9590728282928467</v>
       </c>
       <c r="M51" t="n">
-        <v>0.7795563936233521</v>
+        <v>0.7826303243637085</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1898680925369263</v>
+        <v>0.7493078708648682</v>
       </c>
       <c r="O51" t="n">
         <v>50</v>
@@ -2862,46 +2862,46 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.3699312806129456</v>
+        <v>0.3736334145069122</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8077189922332764</v>
+        <v>0.8100522756576538</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8730586767196655</v>
+        <v>0.8668098449707031</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7955408096313477</v>
+        <v>0.8030280470848083</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9712197780609131</v>
+        <v>0.9701625108718872</v>
       </c>
       <c r="F52" t="n">
-        <v>0.83912193775177</v>
+        <v>0.8394535183906555</v>
       </c>
       <c r="G52" t="n">
-        <v>0.124523900449276</v>
+        <v>0.8131992816925049</v>
       </c>
       <c r="H52" t="n">
-        <v>0.5352551937103271</v>
+        <v>0.5204413533210754</v>
       </c>
       <c r="I52" t="n">
-        <v>0.7717580795288086</v>
+        <v>0.7746860980987549</v>
       </c>
       <c r="J52" t="n">
-        <v>0.7115603685379028</v>
+        <v>0.7266343235969543</v>
       </c>
       <c r="K52" t="n">
-        <v>0.8373817801475525</v>
+        <v>0.8168774843215942</v>
       </c>
       <c r="L52" t="n">
-        <v>0.9575740694999695</v>
+        <v>0.9565988779067993</v>
       </c>
       <c r="M52" t="n">
-        <v>0.7693748474121094</v>
+        <v>0.7691091299057007</v>
       </c>
       <c r="N52" t="n">
-        <v>0.2290009707212448</v>
+        <v>0.7350415587425232</v>
       </c>
       <c r="O52" t="n">
         <v>51</v>
@@ -2909,46 +2909,46 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.3896495401859283</v>
+        <v>0.3793899714946747</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7995948791503906</v>
+        <v>0.8021383285522461</v>
       </c>
       <c r="C53" t="n">
-        <v>0.864177405834198</v>
+        <v>0.866769015789032</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7970597743988037</v>
+        <v>0.7920179963111877</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9690475463867188</v>
+        <v>0.9691260457038879</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8324277997016907</v>
+        <v>0.8340216875076294</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1329677402973175</v>
+        <v>0.8079254031181335</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5134871602058411</v>
+        <v>0.5209800601005554</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7751643657684326</v>
+        <v>0.7767621278762817</v>
       </c>
       <c r="J53" t="n">
-        <v>0.7271849513053894</v>
+        <v>0.7618047595024109</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8231452107429504</v>
+        <v>0.7801359891891479</v>
       </c>
       <c r="L53" t="n">
-        <v>0.9585431218147278</v>
+        <v>0.9536899924278259</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7722226977348328</v>
+        <v>0.7708691358566284</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1974682807922363</v>
+        <v>0.7374428510665894</v>
       </c>
       <c r="O53" t="n">
         <v>52</v>
@@ -2956,46 +2956,46 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.3775823414325714</v>
+        <v>0.3782049417495728</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8057671785354614</v>
+        <v>0.8060929775238037</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8660449981689453</v>
+        <v>0.8726910352706909</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8017181754112244</v>
+        <v>0.7977216243743896</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9707738757133484</v>
+        <v>0.9697633385658264</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8364875912666321</v>
+        <v>0.8383181095123291</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1285764575004578</v>
+        <v>0.811647355556488</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5086909532546997</v>
+        <v>0.5034344792366028</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7761935591697693</v>
+        <v>0.7824437618255615</v>
       </c>
       <c r="J54" t="n">
-        <v>0.7493247985839844</v>
+        <v>0.742639422416687</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7952965497970581</v>
+        <v>0.8203285336494446</v>
       </c>
       <c r="L54" t="n">
-        <v>0.9572687745094299</v>
+        <v>0.9583801031112671</v>
       </c>
       <c r="M54" t="n">
-        <v>0.7716377973556519</v>
+        <v>0.779565155506134</v>
       </c>
       <c r="N54" t="n">
-        <v>0.1838964372873306</v>
+        <v>0.7458087205886841</v>
       </c>
       <c r="O54" t="n">
         <v>53</v>
@@ -3003,46 +3003,46 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.3694182336330414</v>
+        <v>0.3782818913459778</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8053269386291504</v>
+        <v>0.8007012605667114</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8726971745491028</v>
+        <v>0.8720514178276062</v>
       </c>
       <c r="D55" t="n">
-        <v>0.806544303894043</v>
+        <v>0.7993497848510742</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9729992747306824</v>
+        <v>0.9705716371536255</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8407070636749268</v>
+        <v>0.8367569446563721</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1272845417261124</v>
+        <v>0.810390830039978</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5075847506523132</v>
+        <v>0.4941582977771759</v>
       </c>
       <c r="I55" t="n">
-        <v>0.7810937762260437</v>
+        <v>0.7859041690826416</v>
       </c>
       <c r="J55" t="n">
-        <v>0.7447468638420105</v>
+        <v>0.777680516242981</v>
       </c>
       <c r="K55" t="n">
-        <v>0.809264063835144</v>
+        <v>0.7943331599235535</v>
       </c>
       <c r="L55" t="n">
-        <v>0.9578893780708313</v>
+        <v>0.9584240317344666</v>
       </c>
       <c r="M55" t="n">
-        <v>0.7756744623184204</v>
+        <v>0.78593909740448</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1959986537694931</v>
+        <v>0.7531260251998901</v>
       </c>
       <c r="O55" t="n">
         <v>54</v>
@@ -3050,46 +3050,46 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.3710033595561981</v>
+        <v>0.3763779103755951</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8056210279464722</v>
+        <v>0.8068583011627197</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8754804730415344</v>
+        <v>0.8714441657066345</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7997841835021973</v>
+        <v>0.795990526676178</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9721206426620483</v>
+        <v>0.9697596430778503</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8393787145614624</v>
+        <v>0.8372596502304077</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1256867200136185</v>
+        <v>0.81134033203125</v>
       </c>
       <c r="H56" t="n">
-        <v>0.5211771130561829</v>
+        <v>0.5182100534439087</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7743046283721924</v>
+        <v>0.7772862911224365</v>
       </c>
       <c r="J56" t="n">
-        <v>0.7364899516105652</v>
+        <v>0.7259142994880676</v>
       </c>
       <c r="K56" t="n">
-        <v>0.7988045811653137</v>
+        <v>0.8321183919906616</v>
       </c>
       <c r="L56" t="n">
-        <v>0.9554390907287598</v>
+        <v>0.9578457474708557</v>
       </c>
       <c r="M56" t="n">
-        <v>0.7663931846618652</v>
+        <v>0.7753829956054688</v>
       </c>
       <c r="N56" t="n">
-        <v>0.1968372017145157</v>
+        <v>0.741310715675354</v>
       </c>
       <c r="O56" t="n">
         <v>55</v>
@@ -3097,46 +3097,46 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.3766943514347076</v>
+        <v>0.3825580477714539</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8021301031112671</v>
+        <v>0.7991955280303955</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8701724410057068</v>
+        <v>0.8750057816505432</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7995128035545349</v>
+        <v>0.7909795045852661</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9706438779830933</v>
+        <v>0.9691290855407715</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8371617794036865</v>
+        <v>0.835274338722229</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1273909062147141</v>
+        <v>0.8085559010505676</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5066938400268555</v>
+        <v>0.5238314270973206</v>
       </c>
       <c r="I57" t="n">
-        <v>0.7818558216094971</v>
+        <v>0.7740753889083862</v>
       </c>
       <c r="J57" t="n">
-        <v>0.7546237111091614</v>
+        <v>0.7271513938903809</v>
       </c>
       <c r="K57" t="n">
-        <v>0.8058909177780151</v>
+        <v>0.820964515209198</v>
       </c>
       <c r="L57" t="n">
-        <v>0.9574699401855469</v>
+        <v>0.9566057920455933</v>
       </c>
       <c r="M57" t="n">
-        <v>0.7794235944747925</v>
+        <v>0.771245539188385</v>
       </c>
       <c r="N57" t="n">
-        <v>0.1875239461660385</v>
+        <v>0.7365633845329285</v>
       </c>
       <c r="O57" t="n">
         <v>56</v>
@@ -3144,46 +3144,46 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.366345077753067</v>
+        <v>0.3755755126476288</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8080450296401978</v>
+        <v>0.8024858832359314</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8728595376014709</v>
+        <v>0.8743850588798523</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8003606200218201</v>
+        <v>0.792624831199646</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9724583029747009</v>
+        <v>0.969805121421814</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8412752151489258</v>
+        <v>0.8365791440010071</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1249147951602936</v>
+        <v>0.8110318779945374</v>
       </c>
       <c r="H58" t="n">
-        <v>0.5085138082504272</v>
+        <v>0.5097327828407288</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7825928926467896</v>
+        <v>0.783124566078186</v>
       </c>
       <c r="J58" t="n">
-        <v>0.7476627230644226</v>
+        <v>0.739511251449585</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8244269490242004</v>
+        <v>0.8256845474243164</v>
       </c>
       <c r="L58" t="n">
-        <v>0.957280695438385</v>
+        <v>0.9584187269210815</v>
       </c>
       <c r="M58" t="n">
-        <v>0.784155011177063</v>
+        <v>0.7802337408065796</v>
       </c>
       <c r="N58" t="n">
-        <v>0.201994463801384</v>
+        <v>0.7461594343185425</v>
       </c>
       <c r="O58" t="n">
         <v>57</v>
@@ -3191,46 +3191,46 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.3622338771820068</v>
+        <v>0.3781190514564514</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8079006671905518</v>
+        <v>0.7999067306518555</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8736256957054138</v>
+        <v>0.8801397681236267</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8054303526878357</v>
+        <v>0.787865161895752</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9735791683197021</v>
+        <v>0.9693408012390137</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8412119746208191</v>
+        <v>0.8364993929862976</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1230315640568733</v>
+        <v>0.8102096915245056</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5146695971488953</v>
+        <v>0.5232404470443726</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7770043611526489</v>
+        <v>0.775184154510498</v>
       </c>
       <c r="J59" t="n">
-        <v>0.7224115133285522</v>
+        <v>0.7269226908683777</v>
       </c>
       <c r="K59" t="n">
-        <v>0.835157036781311</v>
+        <v>0.8249914050102234</v>
       </c>
       <c r="L59" t="n">
-        <v>0.9584540128707886</v>
+        <v>0.9558340907096863</v>
       </c>
       <c r="M59" t="n">
-        <v>0.7746976613998413</v>
+        <v>0.7728847861289978</v>
       </c>
       <c r="N59" t="n">
-        <v>0.209616020321846</v>
+        <v>0.7378877401351929</v>
       </c>
       <c r="O59" t="n">
         <v>58</v>
@@ -3238,46 +3238,46 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.3625870048999786</v>
+        <v>0.3717203736305237</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8057323098182678</v>
+        <v>0.8005685806274414</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8739097714424133</v>
+        <v>0.8758404850959778</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8040154576301575</v>
+        <v>0.7959935665130615</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9735398292541504</v>
+        <v>0.9705521464347839</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8409649729728699</v>
+        <v>0.83840012550354</v>
       </c>
       <c r="G60" t="n">
-        <v>0.122386172413826</v>
+        <v>0.8127769231796265</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5055574774742126</v>
+        <v>0.5206484794616699</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7855014801025391</v>
+        <v>0.7750799655914307</v>
       </c>
       <c r="J60" t="n">
-        <v>0.7655073404312134</v>
+        <v>0.7320242524147034</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8079352974891663</v>
+        <v>0.810284435749054</v>
       </c>
       <c r="L60" t="n">
-        <v>0.9574518203735352</v>
+        <v>0.9565582871437073</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7861422300338745</v>
+        <v>0.7692266702651978</v>
       </c>
       <c r="N60" t="n">
-        <v>0.2026729434728622</v>
+        <v>0.7351547479629517</v>
       </c>
       <c r="O60" t="n">
         <v>59</v>
@@ -3285,46 +3285,46 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.360889196395874</v>
+        <v>0.3532894551753998</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8037290573120117</v>
+        <v>0.8101900815963745</v>
       </c>
       <c r="C61" t="n">
-        <v>0.883384108543396</v>
+        <v>0.8806025385856628</v>
       </c>
       <c r="D61" t="n">
-        <v>0.793784499168396</v>
+        <v>0.8038720488548279</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9727796912193298</v>
+        <v>0.9732608795166016</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8421710133552551</v>
+        <v>0.8465598225593567</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1223860457539558</v>
+        <v>0.8213115334510803</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5088669657707214</v>
+        <v>0.5108426213264465</v>
       </c>
       <c r="I61" t="n">
-        <v>0.7807768583297729</v>
+        <v>0.7778295278549194</v>
       </c>
       <c r="J61" t="n">
-        <v>0.7440416812896729</v>
+        <v>0.7456071972846985</v>
       </c>
       <c r="K61" t="n">
-        <v>0.8180363774299622</v>
+        <v>0.8008741140365601</v>
       </c>
       <c r="L61" t="n">
-        <v>0.9574146270751953</v>
+        <v>0.9562562704086304</v>
       </c>
       <c r="M61" t="n">
-        <v>0.7792717814445496</v>
+        <v>0.772289514541626</v>
       </c>
       <c r="N61" t="n">
-        <v>0.1923078745603561</v>
+        <v>0.7389388680458069</v>
       </c>
       <c r="O61" t="n">
         <v>60</v>
@@ -3332,46 +3332,46 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.3700000941753387</v>
+        <v>0.3645964562892914</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8009642362594604</v>
+        <v>0.8128646612167358</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8745737671852112</v>
+        <v>0.8675912022590637</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7913516759872437</v>
+        <v>0.806877076625824</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9720478057861328</v>
+        <v>0.9725738763809204</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8365586400032043</v>
+        <v>0.8423035740852356</v>
       </c>
       <c r="G62" t="n">
-        <v>0.126024141907692</v>
+        <v>0.8168827295303345</v>
       </c>
       <c r="H62" t="n">
-        <v>0.4954780638217926</v>
+        <v>0.5296722650527954</v>
       </c>
       <c r="I62" t="n">
-        <v>0.7902629971504211</v>
+        <v>0.7759184837341309</v>
       </c>
       <c r="J62" t="n">
-        <v>0.7838272452354431</v>
+        <v>0.7372117638587952</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7960087060928345</v>
+        <v>0.807668924331665</v>
       </c>
       <c r="L62" t="n">
-        <v>0.9577007293701172</v>
+        <v>0.9532846212387085</v>
       </c>
       <c r="M62" t="n">
-        <v>0.789880096912384</v>
+        <v>0.770844578742981</v>
       </c>
       <c r="N62" t="n">
-        <v>0.1815843433141708</v>
+        <v>0.7368147969245911</v>
       </c>
       <c r="O62" t="n">
         <v>61</v>
@@ -3379,46 +3379,46 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.3551194667816162</v>
+        <v>0.3577437102794647</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8082470893859863</v>
+        <v>0.8117811679840088</v>
       </c>
       <c r="C63" t="n">
-        <v>0.879454493522644</v>
+        <v>0.8778008222579956</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8031679391860962</v>
+        <v>0.8036221861839294</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9748759269714355</v>
+        <v>0.9728618264198303</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8436828851699829</v>
+        <v>0.8445596098899841</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1200775429606438</v>
+        <v>0.8191346526145935</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5232236981391907</v>
+        <v>0.5100794434547424</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7766554355621338</v>
+        <v>0.7813812494277954</v>
       </c>
       <c r="J63" t="n">
-        <v>0.7347236275672913</v>
+        <v>0.7557315230369568</v>
       </c>
       <c r="K63" t="n">
-        <v>0.8163700103759766</v>
+        <v>0.8040522336959839</v>
       </c>
       <c r="L63" t="n">
-        <v>0.955855131149292</v>
+        <v>0.9557909965515137</v>
       </c>
       <c r="M63" t="n">
-        <v>0.7733745574951172</v>
+        <v>0.7791495323181152</v>
       </c>
       <c r="N63" t="n">
-        <v>0.2041477710008621</v>
+        <v>0.7457783222198486</v>
       </c>
       <c r="O63" t="n">
         <v>62</v>
@@ -3426,46 +3426,46 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.352220743894577</v>
+        <v>0.3578563928604126</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8151655793190002</v>
+        <v>0.8103163242340088</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8817284107208252</v>
+        <v>0.8727770447731018</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8119673132896423</v>
+        <v>0.807817816734314</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9747324585914612</v>
+        <v>0.9731961488723755</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8504511713981628</v>
+        <v>0.8434510231018066</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1218689829111099</v>
+        <v>0.8185059428215027</v>
       </c>
       <c r="H64" t="n">
-        <v>0.511198103427887</v>
+        <v>0.4960291385650635</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7770559191703796</v>
+        <v>0.7856870293617249</v>
       </c>
       <c r="J64" t="n">
-        <v>0.726540744304657</v>
+        <v>0.7573696970939636</v>
       </c>
       <c r="K64" t="n">
-        <v>0.826448380947113</v>
+        <v>0.8140610456466675</v>
       </c>
       <c r="L64" t="n">
-        <v>0.9566445350646973</v>
+        <v>0.9579588770866394</v>
       </c>
       <c r="M64" t="n">
-        <v>0.7732825875282288</v>
+        <v>0.7846689820289612</v>
       </c>
       <c r="N64" t="n">
-        <v>0.1974941343069077</v>
+        <v>0.7518832683563232</v>
       </c>
       <c r="O64" t="n">
         <v>63</v>
@@ -3473,46 +3473,46 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.3608211874961853</v>
+        <v>0.3604242503643036</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8053214550018311</v>
+        <v>0.8110148906707764</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8803860545158386</v>
+        <v>0.8744748830795288</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7985265254974365</v>
+        <v>0.8049065470695496</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9735011458396912</v>
+        <v>0.9735670685768127</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8418907523155212</v>
+        <v>0.8431293368339539</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1224846169352531</v>
+        <v>0.8177816867828369</v>
       </c>
       <c r="H65" t="n">
-        <v>0.495065450668335</v>
+        <v>0.5058973431587219</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7849990129470825</v>
+        <v>0.7844797968864441</v>
       </c>
       <c r="J65" t="n">
-        <v>0.7524463534355164</v>
+        <v>0.7737478613853455</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8175557851791382</v>
+        <v>0.791851282119751</v>
       </c>
       <c r="L65" t="n">
-        <v>0.9588702917098999</v>
+        <v>0.955334484577179</v>
       </c>
       <c r="M65" t="n">
-        <v>0.7836626172065735</v>
+        <v>0.7826624512672424</v>
       </c>
       <c r="N65" t="n">
-        <v>0.1883912533521652</v>
+        <v>0.7497280836105347</v>
       </c>
       <c r="O65" t="n">
         <v>64</v>
@@ -3520,46 +3520,46 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.3540105521678925</v>
+        <v>0.3522630929946899</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8066087961196899</v>
+        <v>0.8133516311645508</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8853086233139038</v>
+        <v>0.8810973763465881</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7951492667198181</v>
+        <v>0.806872546672821</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9736424088478088</v>
+        <v>0.9743116497993469</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8442375063896179</v>
+        <v>0.8467950820922852</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1185969933867455</v>
+        <v>0.8216060400009155</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5084414482116699</v>
+        <v>0.5223630666732788</v>
       </c>
       <c r="I66" t="n">
-        <v>0.7841842770576477</v>
+        <v>0.7767553925514221</v>
       </c>
       <c r="J66" t="n">
-        <v>0.7467765212059021</v>
+        <v>0.7429224252700806</v>
       </c>
       <c r="K66" t="n">
-        <v>0.8165217041969299</v>
+        <v>0.8108478188514709</v>
       </c>
       <c r="L66" t="n">
-        <v>0.9571048617362976</v>
+        <v>0.9544972777366638</v>
       </c>
       <c r="M66" t="n">
-        <v>0.7801060676574707</v>
+        <v>0.7753773927688599</v>
       </c>
       <c r="N66" t="n">
-        <v>0.2041112780570984</v>
+        <v>0.7403876185417175</v>
       </c>
       <c r="O66" t="n">
         <v>65</v>
@@ -3567,46 +3567,46 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.346050500869751</v>
+        <v>0.3535671532154083</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8107482194900513</v>
+        <v>0.8100244402885437</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8831160664558411</v>
+        <v>0.8842306137084961</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8070648908615112</v>
+        <v>0.7962400913238525</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9759660959243774</v>
+        <v>0.9738162755966187</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8474667072296143</v>
+        <v>0.8447486758232117</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1170473471283913</v>
+        <v>0.8197886943817139</v>
       </c>
       <c r="H67" t="n">
-        <v>0.5074546337127686</v>
+        <v>0.5048841834068298</v>
       </c>
       <c r="I67" t="n">
-        <v>0.7773300409317017</v>
+        <v>0.7826365232467651</v>
       </c>
       <c r="J67" t="n">
-        <v>0.7296833395957947</v>
+        <v>0.7429465651512146</v>
       </c>
       <c r="K67" t="n">
-        <v>0.8251115083694458</v>
+        <v>0.8183364272117615</v>
       </c>
       <c r="L67" t="n">
-        <v>0.9577394723892212</v>
+        <v>0.9567144513130188</v>
       </c>
       <c r="M67" t="n">
-        <v>0.774478018283844</v>
+        <v>0.7788510322570801</v>
       </c>
       <c r="N67" t="n">
-        <v>0.1999895721673965</v>
+        <v>0.7459951639175415</v>
       </c>
       <c r="O67" t="n">
         <v>66</v>
@@ -3614,46 +3614,46 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.3441685736179352</v>
+        <v>0.3529577553272247</v>
       </c>
       <c r="B68" t="n">
-        <v>0.81324303150177</v>
+        <v>0.809248149394989</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8828610777854919</v>
+        <v>0.8770550489425659</v>
       </c>
       <c r="D68" t="n">
-        <v>0.807063102722168</v>
+        <v>0.8028386831283569</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9759446382522583</v>
+        <v>0.973702609539032</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8484804034233093</v>
+        <v>0.8428574204444885</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1169774159789085</v>
+        <v>0.8180336356163025</v>
       </c>
       <c r="H68" t="n">
-        <v>0.5090814232826233</v>
+        <v>0.5105758905410767</v>
       </c>
       <c r="I68" t="n">
-        <v>0.7816188335418701</v>
+        <v>0.7799561023712158</v>
       </c>
       <c r="J68" t="n">
-        <v>0.7453750967979431</v>
+        <v>0.7534127831459045</v>
       </c>
       <c r="K68" t="n">
-        <v>0.8161348700523376</v>
+        <v>0.8012924194335938</v>
       </c>
       <c r="L68" t="n">
-        <v>0.9564023017883301</v>
+        <v>0.9555107355117798</v>
       </c>
       <c r="M68" t="n">
-        <v>0.779155969619751</v>
+        <v>0.776599645614624</v>
       </c>
       <c r="N68" t="n">
-        <v>0.1981209963560104</v>
+        <v>0.7428496479988098</v>
       </c>
       <c r="O68" t="n">
         <v>67</v>
@@ -3661,46 +3661,46 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.3526510000228882</v>
+        <v>0.3541666865348816</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8050686120986938</v>
+        <v>0.809669554233551</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8843466639518738</v>
+        <v>0.8815372586250305</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7985495328903198</v>
+        <v>0.8038622736930847</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9743747115135193</v>
+        <v>0.9743214249610901</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8441624045372009</v>
+        <v>0.8455429077148438</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1197880208492279</v>
+        <v>0.8205368518829346</v>
       </c>
       <c r="H69" t="n">
-        <v>0.5236413478851318</v>
+        <v>0.5185913443565369</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7733112573623657</v>
+        <v>0.7810221910476685</v>
       </c>
       <c r="J69" t="n">
-        <v>0.722020149230957</v>
+        <v>0.7656576633453369</v>
       </c>
       <c r="K69" t="n">
-        <v>0.8270110487937927</v>
+        <v>0.7908925414085388</v>
       </c>
       <c r="L69" t="n">
-        <v>0.9561624526977539</v>
+        <v>0.9529719948768616</v>
       </c>
       <c r="M69" t="n">
-        <v>0.7709504365921021</v>
+        <v>0.7780813574790955</v>
       </c>
       <c r="N69" t="n">
-        <v>0.2227623015642166</v>
+        <v>0.7438272833824158</v>
       </c>
       <c r="O69" t="n">
         <v>68</v>
@@ -3708,46 +3708,46 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.3476452827453613</v>
+        <v>0.3495022654533386</v>
       </c>
       <c r="B70" t="n">
-        <v>0.80489182472229</v>
+        <v>0.8083202242851257</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8879488706588745</v>
+        <v>0.8795115351676941</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8000922203063965</v>
+        <v>0.8019346594810486</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9758369922637939</v>
+        <v>0.9742187261581421</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8461835384368896</v>
+        <v>0.8447523713111877</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1178000196814537</v>
+        <v>0.8203774094581604</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5045446157455444</v>
+        <v>0.5085086226463318</v>
       </c>
       <c r="I70" t="n">
-        <v>0.7844405174255371</v>
+        <v>0.7861911058425903</v>
       </c>
       <c r="J70" t="n">
-        <v>0.7586201429367065</v>
+        <v>0.7639560699462891</v>
       </c>
       <c r="K70" t="n">
-        <v>0.8120325803756714</v>
+        <v>0.8067030906677246</v>
       </c>
       <c r="L70" t="n">
-        <v>0.9568105340003967</v>
+        <v>0.9556291103363037</v>
       </c>
       <c r="M70" t="n">
-        <v>0.7843931317329407</v>
+        <v>0.7847603559494019</v>
       </c>
       <c r="N70" t="n">
-        <v>0.1947129964828491</v>
+        <v>0.7513150572776794</v>
       </c>
       <c r="O70" t="n">
         <v>69</v>
@@ -3755,46 +3755,46 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.3581307530403137</v>
+        <v>0.34394571185112</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8053034543991089</v>
+        <v>0.8087555170059204</v>
       </c>
       <c r="C71" t="n">
-        <v>0.87787926197052</v>
+        <v>0.8819836974143982</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7986187934875488</v>
+        <v>0.804668664932251</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9736676812171936</v>
+        <v>0.9757989645004272</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8419930934906006</v>
+        <v>0.8474032878875732</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1197019889950752</v>
+        <v>0.8231809735298157</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5119521617889404</v>
+        <v>0.4978747069835663</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7767621278762817</v>
+        <v>0.784441351890564</v>
       </c>
       <c r="J71" t="n">
-        <v>0.7296000123023987</v>
+        <v>0.7559844255447388</v>
       </c>
       <c r="K71" t="n">
-        <v>0.8224672079086304</v>
+        <v>0.8084201216697693</v>
       </c>
       <c r="L71" t="n">
-        <v>0.9568239450454712</v>
+        <v>0.9567814469337463</v>
       </c>
       <c r="M71" t="n">
-        <v>0.7732742428779602</v>
+        <v>0.7813568711280823</v>
       </c>
       <c r="N71" t="n">
-        <v>0.2042064815759659</v>
+        <v>0.7485500574111938</v>
       </c>
       <c r="O71" t="n">
         <v>70</v>
@@ -3802,46 +3802,46 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.351029247045517</v>
+        <v>0.3492790460586548</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8087812662124634</v>
+        <v>0.814048171043396</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8771897554397583</v>
+        <v>0.8772521615028381</v>
       </c>
       <c r="D72" t="n">
-        <v>0.8088005781173706</v>
+        <v>0.8093127608299255</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9761359691619873</v>
+        <v>0.9748980402946472</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8455051779747009</v>
+        <v>0.8476337194442749</v>
       </c>
       <c r="G72" t="n">
-        <v>0.1174460127949715</v>
+        <v>0.8230169415473938</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5060974955558777</v>
+        <v>0.5200960040092468</v>
       </c>
       <c r="I72" t="n">
-        <v>0.7827577590942383</v>
+        <v>0.7818679213523865</v>
       </c>
       <c r="J72" t="n">
-        <v>0.7449080944061279</v>
+        <v>0.771795392036438</v>
       </c>
       <c r="K72" t="n">
-        <v>0.8203324675559998</v>
+        <v>0.7851729393005371</v>
       </c>
       <c r="L72" t="n">
-        <v>0.9572834968566895</v>
+        <v>0.9516405463218689</v>
       </c>
       <c r="M72" t="n">
-        <v>0.7808057069778442</v>
+        <v>0.7784246206283569</v>
       </c>
       <c r="N72" t="n">
-        <v>0.1976099759340286</v>
+        <v>0.7445738911628723</v>
       </c>
       <c r="O72" t="n">
         <v>71</v>
@@ -3849,46 +3849,46 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.3394884765148163</v>
+        <v>0.3435655236244202</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8082820177078247</v>
+        <v>0.8133329749107361</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8893216848373413</v>
+        <v>0.8823490738868713</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7992733716964722</v>
+        <v>0.806393563747406</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9760913848876953</v>
+        <v>0.9752111434936523</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8475843667984009</v>
+        <v>0.8484541773796082</v>
       </c>
       <c r="G73" t="n">
-        <v>0.1143633872270584</v>
+        <v>0.8240348696708679</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5069400668144226</v>
+        <v>0.5213276743888855</v>
       </c>
       <c r="I73" t="n">
-        <v>0.7814877033233643</v>
+        <v>0.7792271971702576</v>
       </c>
       <c r="J73" t="n">
-        <v>0.7438917756080627</v>
+        <v>0.7470604777336121</v>
       </c>
       <c r="K73" t="n">
-        <v>0.821804404258728</v>
+        <v>0.8103402853012085</v>
       </c>
       <c r="L73" t="n">
-        <v>0.9566630125045776</v>
+        <v>0.9539756774902344</v>
       </c>
       <c r="M73" t="n">
-        <v>0.7808980941772461</v>
+        <v>0.7774193286895752</v>
       </c>
       <c r="N73" t="n">
-        <v>0.2001526802778244</v>
+        <v>0.7425821423530579</v>
       </c>
       <c r="O73" t="n">
         <v>72</v>
@@ -3896,46 +3896,46 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.3470602631568909</v>
+        <v>0.346630185842514</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8118939995765686</v>
+        <v>0.8119450807571411</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8751423954963684</v>
+        <v>0.8768526911735535</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8100574612617493</v>
+        <v>0.8152672052383423</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9762524962425232</v>
+        <v>0.9760921597480774</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8459837436676025</v>
+        <v>0.848191499710083</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1165997609496117</v>
+        <v>0.8239345550537109</v>
       </c>
       <c r="H74" t="n">
-        <v>0.5157024264335632</v>
+        <v>0.506648063659668</v>
       </c>
       <c r="I74" t="n">
-        <v>0.7777396440505981</v>
+        <v>0.7844603061676025</v>
       </c>
       <c r="J74" t="n">
-        <v>0.7337825298309326</v>
+        <v>0.7678288817405701</v>
       </c>
       <c r="K74" t="n">
-        <v>0.8161311149597168</v>
+        <v>0.7960474491119385</v>
       </c>
       <c r="L74" t="n">
-        <v>0.9553599953651428</v>
+        <v>0.9539129137992859</v>
       </c>
       <c r="M74" t="n">
-        <v>0.772834837436676</v>
+        <v>0.7816635966300964</v>
       </c>
       <c r="N74" t="n">
-        <v>0.2019868344068527</v>
+        <v>0.748868465423584</v>
       </c>
       <c r="O74" t="n">
         <v>73</v>
@@ -3943,46 +3943,46 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.3285745978355408</v>
+        <v>0.3529323935508728</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8199322819709778</v>
+        <v>0.8102019429206848</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8813623189926147</v>
+        <v>0.8774955272674561</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8172833919525146</v>
+        <v>0.8050516247749329</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9781922698020935</v>
+        <v>0.9743503928184509</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8530938029289246</v>
+        <v>0.8454573154449463</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1110467836260796</v>
+        <v>0.8213570713996887</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5066824555397034</v>
+        <v>0.5178840160369873</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7876437902450562</v>
+        <v>0.7797011137008667</v>
       </c>
       <c r="J75" t="n">
-        <v>0.7834817171096802</v>
+        <v>0.743232250213623</v>
       </c>
       <c r="K75" t="n">
-        <v>0.787247896194458</v>
+        <v>0.8155138492584229</v>
       </c>
       <c r="L75" t="n">
-        <v>0.9535790681838989</v>
+        <v>0.9546294212341309</v>
       </c>
       <c r="M75" t="n">
-        <v>0.7853341102600098</v>
+        <v>0.7776559591293335</v>
       </c>
       <c r="N75" t="n">
-        <v>0.1867668032646179</v>
+        <v>0.7437266707420349</v>
       </c>
       <c r="O75" t="n">
         <v>74</v>
@@ -3990,46 +3990,46 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.3531109094619751</v>
+        <v>0.33674356341362</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8040875196456909</v>
+        <v>0.8149044513702393</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8828008770942688</v>
+        <v>0.8862647414207458</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7954604625701904</v>
+        <v>0.8052031993865967</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9744628667831421</v>
+        <v>0.9762064814567566</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8430871367454529</v>
+        <v>0.8496801257133484</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1195840910077095</v>
+        <v>0.8260230422019958</v>
       </c>
       <c r="H76" t="n">
-        <v>0.5212991833686829</v>
+        <v>0.5006532669067383</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7769443988800049</v>
+        <v>0.7866302728652954</v>
       </c>
       <c r="J76" t="n">
-        <v>0.7479944825172424</v>
+        <v>0.7637203931808472</v>
       </c>
       <c r="K76" t="n">
-        <v>0.7967358231544495</v>
+        <v>0.8090751767158508</v>
       </c>
       <c r="L76" t="n">
-        <v>0.9533938765525818</v>
+        <v>0.955645740032196</v>
       </c>
       <c r="M76" t="n">
-        <v>0.7715994119644165</v>
+        <v>0.7857718467712402</v>
       </c>
       <c r="N76" t="n">
-        <v>0.1919792741537094</v>
+        <v>0.7527504563331604</v>
       </c>
       <c r="O76" t="n">
         <v>75</v>
@@ -4037,46 +4037,46 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3341962397098541</v>
+        <v>0.3346455991268158</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8176989555358887</v>
+        <v>0.8180665969848633</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8853808641433716</v>
+        <v>0.8804264664649963</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8145965337753296</v>
+        <v>0.8130051493644714</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9775208830833435</v>
+        <v>0.9764653444290161</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8537949919700623</v>
+        <v>0.8519386649131775</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1135850697755814</v>
+        <v>0.8283487558364868</v>
       </c>
       <c r="H77" t="n">
-        <v>0.492903858423233</v>
+        <v>0.5092765092849731</v>
       </c>
       <c r="I77" t="n">
-        <v>0.7855710983276367</v>
+        <v>0.7867887020111084</v>
       </c>
       <c r="J77" t="n">
-        <v>0.7626868486404419</v>
+        <v>0.7627022266387939</v>
       </c>
       <c r="K77" t="n">
-        <v>0.8042329549789429</v>
+        <v>0.8071260452270508</v>
       </c>
       <c r="L77" t="n">
-        <v>0.9578986763954163</v>
+        <v>0.9540658593177795</v>
       </c>
       <c r="M77" t="n">
-        <v>0.7828879356384277</v>
+        <v>0.7843394875526428</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1772368997335434</v>
+        <v>0.750567615032196</v>
       </c>
       <c r="O77" t="n">
         <v>76</v>
@@ -4084,46 +4084,46 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.3320159912109375</v>
+        <v>0.3328303396701813</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8158437013626099</v>
+        <v>0.8178183436393738</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8806236386299133</v>
+        <v>0.884391725063324</v>
       </c>
       <c r="D78" t="n">
-        <v>0.8159716129302979</v>
+        <v>0.8081733584403992</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9774144887924194</v>
+        <v>0.9763981103897095</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8526467680931091</v>
+        <v>0.8512222766876221</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1128476411104202</v>
+        <v>0.8276834487915039</v>
       </c>
       <c r="H78" t="n">
-        <v>0.5149173140525818</v>
+        <v>0.5141951441764832</v>
       </c>
       <c r="I78" t="n">
-        <v>0.7792445421218872</v>
+        <v>0.7819564342498779</v>
       </c>
       <c r="J78" t="n">
-        <v>0.7470608949661255</v>
+        <v>0.7615346908569336</v>
       </c>
       <c r="K78" t="n">
-        <v>0.8015339970588684</v>
+        <v>0.7934519052505493</v>
       </c>
       <c r="L78" t="n">
-        <v>0.9534920454025269</v>
+        <v>0.9540501832962036</v>
       </c>
       <c r="M78" t="n">
-        <v>0.7733315229415894</v>
+        <v>0.7771665453910828</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1927091926336288</v>
+        <v>0.7444908022880554</v>
       </c>
       <c r="O78" t="n">
         <v>77</v>
@@ -4131,46 +4131,46 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.3384639620780945</v>
+        <v>0.3440955877304077</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8164277076721191</v>
+        <v>0.8099689483642578</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8785257339477539</v>
+        <v>0.8873263001441956</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8153112530708313</v>
+        <v>0.8086037039756775</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9776756167411804</v>
+        <v>0.9757416844367981</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8492629528045654</v>
+        <v>0.8509311676025391</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1136675775051117</v>
+        <v>0.8264425992965698</v>
       </c>
       <c r="H79" t="n">
-        <v>0.5206548571586609</v>
+        <v>0.4887045919895172</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7766666412353516</v>
+        <v>0.7895699739456177</v>
       </c>
       <c r="J79" t="n">
-        <v>0.7339316606521606</v>
+        <v>0.7699124217033386</v>
       </c>
       <c r="K79" t="n">
-        <v>0.8187646865844727</v>
+        <v>0.8071746826171875</v>
       </c>
       <c r="L79" t="n">
-        <v>0.9554662704467773</v>
+        <v>0.9581938982009888</v>
       </c>
       <c r="M79" t="n">
-        <v>0.7740281224250793</v>
+        <v>0.7880995273590088</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2066270709037781</v>
+        <v>0.7556937336921692</v>
       </c>
       <c r="O79" t="n">
         <v>78</v>
@@ -4178,46 +4178,46 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.328008621931076</v>
+        <v>0.3325970768928528</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8159950375556946</v>
+        <v>0.8163653016090393</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8861128687858582</v>
+        <v>0.8855376243591309</v>
       </c>
       <c r="D80" t="n">
-        <v>0.8139959573745728</v>
+        <v>0.8144997358322144</v>
       </c>
       <c r="E80" t="n">
-        <v>0.977700412273407</v>
+        <v>0.9772747755050659</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8544604182243347</v>
+        <v>0.8537545800209045</v>
       </c>
       <c r="G80" t="n">
-        <v>0.109847292304039</v>
+        <v>0.829937219619751</v>
       </c>
       <c r="H80" t="n">
-        <v>0.5164515376091003</v>
+        <v>0.5106801390647888</v>
       </c>
       <c r="I80" t="n">
-        <v>0.7825198173522949</v>
+        <v>0.7847589254379272</v>
       </c>
       <c r="J80" t="n">
-        <v>0.745546281337738</v>
+        <v>0.7735387086868286</v>
       </c>
       <c r="K80" t="n">
-        <v>0.8160314559936523</v>
+        <v>0.7929860353469849</v>
       </c>
       <c r="L80" t="n">
-        <v>0.9540345072746277</v>
+        <v>0.9521461725234985</v>
       </c>
       <c r="M80" t="n">
-        <v>0.7792292237281799</v>
+        <v>0.7831299304962158</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2068314701318741</v>
+        <v>0.7501039505004883</v>
       </c>
       <c r="O80" t="n">
         <v>79</v>
@@ -4225,46 +4225,46 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.3232993185520172</v>
+        <v>0.3397630155086517</v>
       </c>
       <c r="B81" t="n">
-        <v>0.8181952834129333</v>
+        <v>0.8105916976928711</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8848330974578857</v>
+        <v>0.8872314691543579</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8201762437820435</v>
+        <v>0.8064902424812317</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9790796637535095</v>
+        <v>0.9756028652191162</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8556056618690491</v>
+        <v>0.8503787517547607</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1095631942152977</v>
+        <v>0.8263320922851562</v>
       </c>
       <c r="H81" t="n">
-        <v>0.5119502544403076</v>
+        <v>0.5148292183876038</v>
       </c>
       <c r="I81" t="n">
-        <v>0.7812701463699341</v>
+        <v>0.7830390334129333</v>
       </c>
       <c r="J81" t="n">
-        <v>0.7376584410667419</v>
+        <v>0.7561742067337036</v>
       </c>
       <c r="K81" t="n">
-        <v>0.8263143301010132</v>
+        <v>0.8040754795074463</v>
       </c>
       <c r="L81" t="n">
-        <v>0.9562209248542786</v>
+        <v>0.9529309868812561</v>
       </c>
       <c r="M81" t="n">
-        <v>0.7795265913009644</v>
+        <v>0.7793774604797363</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2090436965227127</v>
+        <v>0.7463193535804749</v>
       </c>
       <c r="O81" t="n">
         <v>80</v>
@@ -4272,46 +4272,46 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.3284462094306946</v>
+        <v>0.3344905972480774</v>
       </c>
       <c r="B82" t="n">
-        <v>0.8158282041549683</v>
+        <v>0.8123760223388672</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8849027156829834</v>
+        <v>0.886607825756073</v>
       </c>
       <c r="D82" t="n">
-        <v>0.8111405968666077</v>
+        <v>0.8062794804573059</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9780963659286499</v>
+        <v>0.9772657752037048</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8513901233673096</v>
+        <v>0.8498825430870056</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1101548597216606</v>
+        <v>0.826286256313324</v>
       </c>
       <c r="H82" t="n">
-        <v>0.5283874273300171</v>
+        <v>0.4979536533355713</v>
       </c>
       <c r="I82" t="n">
-        <v>0.7777347564697266</v>
+        <v>0.7848594188690186</v>
       </c>
       <c r="J82" t="n">
-        <v>0.736358106136322</v>
+        <v>0.7587644457817078</v>
       </c>
       <c r="K82" t="n">
-        <v>0.8127822279930115</v>
+        <v>0.8137098550796509</v>
       </c>
       <c r="L82" t="n">
-        <v>0.9526004791259766</v>
+        <v>0.9568601250648499</v>
       </c>
       <c r="M82" t="n">
-        <v>0.7726983428001404</v>
+        <v>0.7852544188499451</v>
       </c>
       <c r="N82" t="n">
-        <v>0.216308131814003</v>
+        <v>0.7520991563796997</v>
       </c>
       <c r="O82" t="n">
         <v>81</v>
@@ -4319,46 +4319,46 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.335060715675354</v>
+        <v>0.3343038856983185</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8129708766937256</v>
+        <v>0.8132410645484924</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8844854235649109</v>
+        <v>0.8898363709449768</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8094124794006348</v>
+        <v>0.8104787468910217</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9776463508605957</v>
+        <v>0.9766356945037842</v>
       </c>
       <c r="F83" t="n">
-        <v>0.850471019744873</v>
+        <v>0.8545286655426025</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1138757616281509</v>
+        <v>0.8302767276763916</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5171449780464172</v>
+        <v>0.5050823092460632</v>
       </c>
       <c r="I83" t="n">
-        <v>0.7783932685852051</v>
+        <v>0.7863866090774536</v>
       </c>
       <c r="J83" t="n">
-        <v>0.7318058609962463</v>
+        <v>0.7607164978981018</v>
       </c>
       <c r="K83" t="n">
-        <v>0.8259468078613281</v>
+        <v>0.804455578327179</v>
       </c>
       <c r="L83" t="n">
-        <v>0.9557535648345947</v>
+        <v>0.9532153010368347</v>
       </c>
       <c r="M83" t="n">
-        <v>0.7760364413261414</v>
+        <v>0.7820194363594055</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2225045412778854</v>
+        <v>0.7493899464607239</v>
       </c>
       <c r="O83" t="n">
         <v>82</v>
@@ -4366,46 +4366,46 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.3404967188835144</v>
+        <v>0.3309845328330994</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8067286610603333</v>
+        <v>0.8152142763137817</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8904433846473694</v>
+        <v>0.8835183382034302</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8045961856842041</v>
+        <v>0.8143880367279053</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9770215749740601</v>
+        <v>0.9775715470314026</v>
       </c>
       <c r="F84" t="n">
-        <v>0.849331796169281</v>
+        <v>0.8530318140983582</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1151908487081528</v>
+        <v>0.8294665217399597</v>
       </c>
       <c r="H84" t="n">
-        <v>0.5124295353889465</v>
+        <v>0.5044820308685303</v>
       </c>
       <c r="I84" t="n">
-        <v>0.7846721410751343</v>
+        <v>0.7875065803527832</v>
       </c>
       <c r="J84" t="n">
-        <v>0.7615585923194885</v>
+        <v>0.7779302000999451</v>
       </c>
       <c r="K84" t="n">
-        <v>0.8041995167732239</v>
+        <v>0.7943528890609741</v>
       </c>
       <c r="L84" t="n">
-        <v>0.9530190825462341</v>
+        <v>0.9551957845687866</v>
       </c>
       <c r="M84" t="n">
-        <v>0.7823153734207153</v>
+        <v>0.7860797047615051</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1991754323244095</v>
+        <v>0.7535534501075745</v>
       </c>
       <c r="O84" t="n">
         <v>83</v>
@@ -4413,46 +4413,46 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.3314685523509979</v>
+        <v>0.3218086063861847</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8132541179656982</v>
+        <v>0.8182015419006348</v>
       </c>
       <c r="C85" t="n">
-        <v>0.889058530330658</v>
+        <v>0.8898710012435913</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8095407485961914</v>
+        <v>0.8120811581611633</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9781621694564819</v>
+        <v>0.9790592789649963</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8524580001831055</v>
+        <v>0.8541858792304993</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1129316315054893</v>
+        <v>0.8315714001655579</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4980999231338501</v>
+        <v>0.5358268618583679</v>
       </c>
       <c r="I85" t="n">
-        <v>0.7834346294403076</v>
+        <v>0.7766590118408203</v>
       </c>
       <c r="J85" t="n">
-        <v>0.7633755207061768</v>
+        <v>0.7556267976760864</v>
       </c>
       <c r="K85" t="n">
-        <v>0.8067436814308167</v>
+        <v>0.7857007384300232</v>
       </c>
       <c r="L85" t="n">
-        <v>0.9563431739807129</v>
+        <v>0.9492706060409546</v>
       </c>
       <c r="M85" t="n">
-        <v>0.7845045328140259</v>
+        <v>0.7703573703765869</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1854347586631775</v>
+        <v>0.7365263700485229</v>
       </c>
       <c r="O85" t="n">
         <v>84</v>
@@ -4460,46 +4460,46 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.3343459665775299</v>
+        <v>0.3202460110187531</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8094351887702942</v>
+        <v>0.8163186311721802</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8873792886734009</v>
+        <v>0.8913061618804932</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8146628737449646</v>
+        <v>0.8134477734565735</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9783681035041809</v>
+        <v>0.9783343076705933</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8514968156814575</v>
+        <v>0.8570336103439331</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1132228001952171</v>
+        <v>0.8338123559951782</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5142362713813782</v>
+        <v>0.5261601805686951</v>
       </c>
       <c r="I86" t="n">
-        <v>0.7832002639770508</v>
+        <v>0.7765564322471619</v>
       </c>
       <c r="J86" t="n">
-        <v>0.767942488193512</v>
+        <v>0.727876603603363</v>
       </c>
       <c r="K86" t="n">
-        <v>0.792117714881897</v>
+        <v>0.8275757431983948</v>
       </c>
       <c r="L86" t="n">
-        <v>0.9533699750900269</v>
+        <v>0.9547054171562195</v>
       </c>
       <c r="M86" t="n">
-        <v>0.7798763513565063</v>
+        <v>0.7745386958122253</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1938607543706894</v>
+        <v>0.739973247051239</v>
       </c>
       <c r="O86" t="n">
         <v>85</v>
@@ -4507,46 +4507,46 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.3297981321811676</v>
+        <v>0.3222995102405548</v>
       </c>
       <c r="B87" t="n">
-        <v>0.815993070602417</v>
+        <v>0.8164071440696716</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8878540396690369</v>
+        <v>0.8876162767410278</v>
       </c>
       <c r="D87" t="n">
-        <v>0.8134535551071167</v>
+        <v>0.8193113803863525</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9786543846130371</v>
+        <v>0.9786835312843323</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8540221452713013</v>
+        <v>0.8562533259391785</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1112091988325119</v>
+        <v>0.8331452012062073</v>
       </c>
       <c r="H87" t="n">
-        <v>0.5073571801185608</v>
+        <v>0.5296740531921387</v>
       </c>
       <c r="I87" t="n">
-        <v>0.7831647992134094</v>
+        <v>0.7764241099357605</v>
       </c>
       <c r="J87" t="n">
-        <v>0.7452507615089417</v>
+        <v>0.7455260157585144</v>
       </c>
       <c r="K87" t="n">
-        <v>0.8218708634376526</v>
+        <v>0.8001587986946106</v>
       </c>
       <c r="L87" t="n">
-        <v>0.955476701259613</v>
+        <v>0.9504461288452148</v>
       </c>
       <c r="M87" t="n">
-        <v>0.7816702723503113</v>
+        <v>0.7718721032142639</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1996372789144516</v>
+        <v>0.7380444407463074</v>
       </c>
       <c r="O87" t="n">
         <v>86</v>
@@ -4554,46 +4554,46 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.3218400478363037</v>
+        <v>0.3266685605049133</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8109365701675415</v>
+        <v>0.8199478387832642</v>
       </c>
       <c r="C88" t="n">
-        <v>0.892432689666748</v>
+        <v>0.8818188309669495</v>
       </c>
       <c r="D88" t="n">
-        <v>0.8128721117973328</v>
+        <v>0.8197798132896423</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793559908866882</v>
+        <v>0.9779098629951477</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8551003336906433</v>
+        <v>0.8549349904060364</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1089066192507744</v>
+        <v>0.8316296339035034</v>
       </c>
       <c r="H88" t="n">
-        <v>0.5182917714118958</v>
+        <v>0.519580602645874</v>
       </c>
       <c r="I88" t="n">
-        <v>0.7828516960144043</v>
+        <v>0.7808350324630737</v>
       </c>
       <c r="J88" t="n">
-        <v>0.7863328456878662</v>
+        <v>0.7506964802742004</v>
       </c>
       <c r="K88" t="n">
-        <v>0.7714864611625671</v>
+        <v>0.8073944449424744</v>
       </c>
       <c r="L88" t="n">
-        <v>0.9515936374664307</v>
+        <v>0.9526304602622986</v>
       </c>
       <c r="M88" t="n">
-        <v>0.7788315415382385</v>
+        <v>0.7780150771141052</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1828179955482483</v>
+        <v>0.7444746494293213</v>
       </c>
       <c r="O88" t="n">
         <v>87</v>
@@ -4601,46 +4601,46 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.3190004825592041</v>
+        <v>0.3243154585361481</v>
       </c>
       <c r="B89" t="n">
-        <v>0.815520167350769</v>
+        <v>0.8142071962356567</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8916204571723938</v>
+        <v>0.8852636814117432</v>
       </c>
       <c r="D89" t="n">
-        <v>0.8134014010429382</v>
+        <v>0.8128898739814758</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9794236421585083</v>
+        <v>0.9784286618232727</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8558796048164368</v>
+        <v>0.8525835275650024</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1082232072949409</v>
+        <v>0.8300530910491943</v>
       </c>
       <c r="H89" t="n">
-        <v>0.5015563368797302</v>
+        <v>0.518232524394989</v>
       </c>
       <c r="I89" t="n">
-        <v>0.7880770564079285</v>
+        <v>0.7821946144104004</v>
       </c>
       <c r="J89" t="n">
-        <v>0.7537772059440613</v>
+        <v>0.7602897882461548</v>
       </c>
       <c r="K89" t="n">
-        <v>0.8255006670951843</v>
+        <v>0.7971680760383606</v>
       </c>
       <c r="L89" t="n">
-        <v>0.9571635127067566</v>
+        <v>0.9508202075958252</v>
       </c>
       <c r="M89" t="n">
-        <v>0.7880200147628784</v>
+        <v>0.7783235907554626</v>
       </c>
       <c r="N89" t="n">
-        <v>0.2030640095472336</v>
+        <v>0.7453413009643555</v>
       </c>
       <c r="O89" t="n">
         <v>88</v>
@@ -4648,46 +4648,46 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.325511246919632</v>
+        <v>0.3295562863349915</v>
       </c>
       <c r="B90" t="n">
-        <v>0.813465416431427</v>
+        <v>0.8117525577545166</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8863319158554077</v>
+        <v>0.8915006518363953</v>
       </c>
       <c r="D90" t="n">
-        <v>0.813903272151947</v>
+        <v>0.8051893711090088</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9788333177566528</v>
+        <v>0.9770501255989075</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8530860543251038</v>
+        <v>0.8530035018920898</v>
       </c>
       <c r="G90" t="n">
-        <v>0.108407087624073</v>
+        <v>0.8291441798210144</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5213720202445984</v>
+        <v>0.5268799662590027</v>
       </c>
       <c r="I90" t="n">
-        <v>0.7835948467254639</v>
+        <v>0.7741014957427979</v>
       </c>
       <c r="J90" t="n">
-        <v>0.7740997672080994</v>
+        <v>0.7225890755653381</v>
       </c>
       <c r="K90" t="n">
-        <v>0.7897624373435974</v>
+        <v>0.8241328597068787</v>
       </c>
       <c r="L90" t="n">
-        <v>0.9515987634658813</v>
+        <v>0.953646183013916</v>
       </c>
       <c r="M90" t="n">
-        <v>0.7818368077278137</v>
+        <v>0.7700024247169495</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1995456218719482</v>
+        <v>0.7362920045852661</v>
       </c>
       <c r="O90" t="n">
         <v>89</v>
@@ -4695,46 +4695,46 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.3217406868934631</v>
+        <v>0.3206320106983185</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8168594837188721</v>
+        <v>0.8168686628341675</v>
       </c>
       <c r="C91" t="n">
-        <v>0.889136791229248</v>
+        <v>0.8901237845420837</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8151730895042419</v>
+        <v>0.8122749328613281</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9795444011688232</v>
+        <v>0.9788141846656799</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8556555509567261</v>
+        <v>0.85505211353302</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1090143546462059</v>
+        <v>0.8322666883468628</v>
       </c>
       <c r="H91" t="n">
-        <v>0.5137901902198792</v>
+        <v>0.5180917978286743</v>
       </c>
       <c r="I91" t="n">
-        <v>0.7797713279724121</v>
+        <v>0.7827380895614624</v>
       </c>
       <c r="J91" t="n">
-        <v>0.7527289986610413</v>
+        <v>0.7627996206283569</v>
       </c>
       <c r="K91" t="n">
-        <v>0.7955204844474792</v>
+        <v>0.7987028956413269</v>
       </c>
       <c r="L91" t="n">
-        <v>0.95246422290802</v>
+        <v>0.953158974647522</v>
       </c>
       <c r="M91" t="n">
-        <v>0.7735263109207153</v>
+        <v>0.7803354263305664</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1951433271169662</v>
+        <v>0.7460720539093018</v>
       </c>
       <c r="O91" t="n">
         <v>90</v>
@@ -4742,46 +4742,46 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.3171798586845398</v>
+        <v>0.3265407085418701</v>
       </c>
       <c r="B92" t="n">
-        <v>0.81775963306427</v>
+        <v>0.8160508871078491</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8886642456054688</v>
+        <v>0.8821648359298706</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8209815621376038</v>
+        <v>0.8173378109931946</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9802127480506897</v>
+        <v>0.9783573746681213</v>
       </c>
       <c r="F92" t="n">
-        <v>0.858153223991394</v>
+        <v>0.8542112708091736</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1076921373605728</v>
+        <v>0.8309946060180664</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5122605562210083</v>
+        <v>0.5124418139457703</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7870444059371948</v>
+        <v>0.7878125905990601</v>
       </c>
       <c r="J92" t="n">
-        <v>0.7597557902336121</v>
+        <v>0.7767075896263123</v>
       </c>
       <c r="K92" t="n">
-        <v>0.8108773827552795</v>
+        <v>0.7972102165222168</v>
       </c>
       <c r="L92" t="n">
-        <v>0.9531306624412537</v>
+        <v>0.9530133008956909</v>
       </c>
       <c r="M92" t="n">
-        <v>0.7845221757888794</v>
+        <v>0.7868432402610779</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1972275227308273</v>
+        <v>0.7533154487609863</v>
       </c>
       <c r="O92" t="n">
         <v>91</v>
@@ -4789,46 +4789,46 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.3201156854629517</v>
+        <v>0.3151631653308868</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8160990476608276</v>
+        <v>0.8220711946487427</v>
       </c>
       <c r="C93" t="n">
-        <v>0.890816867351532</v>
+        <v>0.8861746191978455</v>
       </c>
       <c r="D93" t="n">
-        <v>0.815508246421814</v>
+        <v>0.8204066157341003</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9793450832366943</v>
+        <v>0.9796037077903748</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8561409711837769</v>
+        <v>0.857416033744812</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1086193770170212</v>
+        <v>0.8350799083709717</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5208024978637695</v>
+        <v>0.5345583558082581</v>
       </c>
       <c r="I93" t="n">
-        <v>0.7786339521408081</v>
+        <v>0.7760840058326721</v>
       </c>
       <c r="J93" t="n">
-        <v>0.7483376264572144</v>
+        <v>0.7392809391021729</v>
       </c>
       <c r="K93" t="n">
-        <v>0.8056724071502686</v>
+        <v>0.8083455562591553</v>
       </c>
       <c r="L93" t="n">
-        <v>0.9525102972984314</v>
+        <v>0.9498853087425232</v>
       </c>
       <c r="M93" t="n">
-        <v>0.7759325504302979</v>
+        <v>0.7722652554512024</v>
       </c>
       <c r="N93" t="n">
-        <v>0.204002857208252</v>
+        <v>0.7378793358802795</v>
       </c>
       <c r="O93" t="n">
         <v>92</v>
@@ -4836,46 +4836,46 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.3239161968231201</v>
+        <v>0.3142133057117462</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8147821426391602</v>
+        <v>0.8249986171722412</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8964765667915344</v>
+        <v>0.8886972665786743</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8094930052757263</v>
+        <v>0.8252961039543152</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9791819453239441</v>
+        <v>0.9795844554901123</v>
       </c>
       <c r="F94" t="n">
-        <v>0.856698751449585</v>
+        <v>0.8602491021156311</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1089683547616005</v>
+        <v>0.8374037742614746</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5269635319709778</v>
+        <v>0.5292317271232605</v>
       </c>
       <c r="I94" t="n">
-        <v>0.778869092464447</v>
+        <v>0.7778670191764832</v>
       </c>
       <c r="J94" t="n">
-        <v>0.7417730689048767</v>
+        <v>0.7466537356376648</v>
       </c>
       <c r="K94" t="n">
-        <v>0.8104140162467957</v>
+        <v>0.7987601757049561</v>
       </c>
       <c r="L94" t="n">
-        <v>0.9519990086555481</v>
+        <v>0.9486103057861328</v>
       </c>
       <c r="M94" t="n">
-        <v>0.7745699286460876</v>
+        <v>0.7718168497085571</v>
       </c>
       <c r="N94" t="n">
-        <v>0.2092195004224777</v>
+        <v>0.7383648753166199</v>
       </c>
       <c r="O94" t="n">
         <v>93</v>
@@ -4883,46 +4883,46 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.3191033899784088</v>
+        <v>0.3126533031463623</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8148913383483887</v>
+        <v>0.8218932151794434</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8945161104202271</v>
+        <v>0.8894041776657104</v>
       </c>
       <c r="D95" t="n">
-        <v>0.8125744462013245</v>
+        <v>0.8195905685424805</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9796435832977295</v>
+        <v>0.9793391823768616</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8568893074989319</v>
+        <v>0.8592170476913452</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1078540533781052</v>
+        <v>0.8364545702934265</v>
       </c>
       <c r="H95" t="n">
-        <v>0.5229349732398987</v>
+        <v>0.527600109577179</v>
       </c>
       <c r="I95" t="n">
-        <v>0.7785981893539429</v>
+        <v>0.780535876750946</v>
       </c>
       <c r="J95" t="n">
-        <v>0.7389591932296753</v>
+        <v>0.7544140219688416</v>
       </c>
       <c r="K95" t="n">
-        <v>0.8198352456092834</v>
+        <v>0.8073943853378296</v>
       </c>
       <c r="L95" t="n">
-        <v>0.9538472294807434</v>
+        <v>0.9511392116546631</v>
       </c>
       <c r="M95" t="n">
-        <v>0.7773177623748779</v>
+        <v>0.7799855470657349</v>
       </c>
       <c r="N95" t="n">
-        <v>0.2049831598997116</v>
+        <v>0.7453436851501465</v>
       </c>
       <c r="O95" t="n">
         <v>94</v>
@@ -4930,46 +4930,46 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.3128959834575653</v>
+        <v>0.3190281391143799</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8187862038612366</v>
+        <v>0.8158702850341797</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8940247297286987</v>
+        <v>0.8933984041213989</v>
       </c>
       <c r="D96" t="n">
-        <v>0.818712592124939</v>
+        <v>0.8156314492225647</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9798240065574646</v>
+        <v>0.9792696833610535</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8604803681373596</v>
+        <v>0.8575871586799622</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1071913987398148</v>
+        <v>0.8345581889152527</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5260429382324219</v>
+        <v>0.5066301226615906</v>
       </c>
       <c r="I96" t="n">
-        <v>0.779155433177948</v>
+        <v>0.7837133407592773</v>
       </c>
       <c r="J96" t="n">
-        <v>0.7465510964393616</v>
+        <v>0.7522037625312805</v>
       </c>
       <c r="K96" t="n">
-        <v>0.8092050552368164</v>
+        <v>0.8173602223396301</v>
       </c>
       <c r="L96" t="n">
-        <v>0.9525459408760071</v>
+        <v>0.9546138048171997</v>
       </c>
       <c r="M96" t="n">
-        <v>0.7766600251197815</v>
+        <v>0.7834107279777527</v>
       </c>
       <c r="N96" t="n">
-        <v>0.2148220390081406</v>
+        <v>0.7491835355758667</v>
       </c>
       <c r="O96" t="n">
         <v>95</v>
@@ -4977,46 +4977,46 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.3096077144145966</v>
+        <v>0.3199594914913177</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8149056434631348</v>
+        <v>0.8126766681671143</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8933138847351074</v>
+        <v>0.8947460055351257</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8180035352706909</v>
+        <v>0.8077128529548645</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9806280136108398</v>
+        <v>0.9787209630012512</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8588677644729614</v>
+        <v>0.8554973602294922</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1041137799620628</v>
+        <v>0.8327745199203491</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5094500184059143</v>
+        <v>0.5170493721961975</v>
       </c>
       <c r="I97" t="n">
-        <v>0.7877433896064758</v>
+        <v>0.7822459936141968</v>
       </c>
       <c r="J97" t="n">
-        <v>0.7761252522468567</v>
+        <v>0.7602241039276123</v>
       </c>
       <c r="K97" t="n">
-        <v>0.7952826023101807</v>
+        <v>0.8007551431655884</v>
       </c>
       <c r="L97" t="n">
-        <v>0.9534860253334045</v>
+        <v>0.9517819285392761</v>
       </c>
       <c r="M97" t="n">
-        <v>0.7856130599975586</v>
+        <v>0.7799497246742249</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1989489644765854</v>
+        <v>0.7463776469230652</v>
       </c>
       <c r="O97" t="n">
         <v>96</v>
@@ -5024,46 +5024,46 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.3167338967323303</v>
+        <v>0.3234554529190063</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8201191425323486</v>
+        <v>0.8068467378616333</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8914447426795959</v>
+        <v>0.8980244398117065</v>
       </c>
       <c r="D98" t="n">
-        <v>0.8204121589660645</v>
+        <v>0.8016443848609924</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9804154634475708</v>
+        <v>0.9780518412590027</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8591950535774231</v>
+        <v>0.8532775640487671</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1072718724608421</v>
+        <v>0.8300957083702087</v>
       </c>
       <c r="H98" t="n">
-        <v>0.526644766330719</v>
+        <v>0.5348265171051025</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7788680791854858</v>
+        <v>0.7780658602714539</v>
       </c>
       <c r="J98" t="n">
-        <v>0.7438095211982727</v>
+        <v>0.7417905330657959</v>
       </c>
       <c r="K98" t="n">
-        <v>0.8043389916419983</v>
+        <v>0.8101938962936401</v>
       </c>
       <c r="L98" t="n">
-        <v>0.9525882601737976</v>
+        <v>0.9507305026054382</v>
       </c>
       <c r="M98" t="n">
-        <v>0.7728942036628723</v>
+        <v>0.7745063900947571</v>
       </c>
       <c r="N98" t="n">
-        <v>0.2006293386220932</v>
+        <v>0.7385578751564026</v>
       </c>
       <c r="O98" t="n">
         <v>97</v>
@@ -5071,46 +5071,46 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.309075266122818</v>
+        <v>0.3155461847782135</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8221222758293152</v>
+        <v>0.8174771070480347</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8887315988540649</v>
+        <v>0.8919564485549927</v>
       </c>
       <c r="D99" t="n">
-        <v>0.8258655071258545</v>
+        <v>0.8176875710487366</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9813461303710938</v>
+        <v>0.9797643423080444</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8601120710372925</v>
+        <v>0.8581823706626892</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1037563681602478</v>
+        <v>0.8354107141494751</v>
       </c>
       <c r="H99" t="n">
-        <v>0.527917206287384</v>
+        <v>0.5278379917144775</v>
       </c>
       <c r="I99" t="n">
-        <v>0.780717134475708</v>
+        <v>0.7746987342834473</v>
       </c>
       <c r="J99" t="n">
-        <v>0.7606315612792969</v>
+        <v>0.7305366992950439</v>
       </c>
       <c r="K99" t="n">
-        <v>0.7930821776390076</v>
+        <v>0.8132071495056152</v>
       </c>
       <c r="L99" t="n">
-        <v>0.9504327774047852</v>
+        <v>0.9519389867782593</v>
       </c>
       <c r="M99" t="n">
-        <v>0.7764995098114014</v>
+        <v>0.7696371078491211</v>
       </c>
       <c r="N99" t="n">
-        <v>0.2006331235170364</v>
+        <v>0.7356953024864197</v>
       </c>
       <c r="O99" t="n">
         <v>98</v>
@@ -5118,49 +5118,1412 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.3112269341945648</v>
+        <v>0.3171335458755493</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8194555640220642</v>
+        <v>0.8154999017715454</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8979938626289368</v>
+        <v>0.897236704826355</v>
       </c>
       <c r="D100" t="n">
-        <v>0.8148125410079956</v>
+        <v>0.811829149723053</v>
       </c>
       <c r="E100" t="n">
-        <v>0.98033207654953</v>
+        <v>0.9794425964355469</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8602340817451477</v>
+        <v>0.8584321141242981</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1048237457871437</v>
+        <v>0.8357489705085754</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5132989287376404</v>
+        <v>0.5323352813720703</v>
       </c>
       <c r="I100" t="n">
-        <v>0.7824746370315552</v>
+        <v>0.7781944870948792</v>
       </c>
       <c r="J100" t="n">
-        <v>0.7388902306556702</v>
+        <v>0.7438415288925171</v>
       </c>
       <c r="K100" t="n">
-        <v>0.8332439661026001</v>
+        <v>0.8124830722808838</v>
       </c>
       <c r="L100" t="n">
-        <v>0.9558067321777344</v>
+        <v>0.9512558579444885</v>
       </c>
       <c r="M100" t="n">
-        <v>0.7832265496253967</v>
+        <v>0.7766093611717224</v>
       </c>
       <c r="N100" t="n">
-        <v>0.2129818201065063</v>
+        <v>0.7416477203369141</v>
       </c>
       <c r="O100" t="n">
         <v>99</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.3005393743515015</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.828020453453064</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.892047643661499</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.8277351260185242</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.9812039136886597</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.8646442294120789</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.8427377343177795</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.5344323515892029</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.7760114073753357</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.7505767345428467</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.7843478322029114</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.9475421905517578</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.767076313495636</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.7342266440391541</v>
+      </c>
+      <c r="O101" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.3076323866844177</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.8243775367736816</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.8863732814788818</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.8312409520149231</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.9809451699256897</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.8627633452415466</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.8401548266410828</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.5329583287239075</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.7805361747741699</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.764617919921875</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.7814694046974182</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.9477555751800537</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.7729626297950745</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.7400221824645996</v>
+      </c>
+      <c r="O102" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.3128415048122406</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.8210685253143311</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.8912549614906311</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.8186563849449158</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.979448676109314</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.8600543737411499</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.837943434715271</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.5228593945503235</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.780293345451355</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.7497343420982361</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.8103715777397156</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.9519599676132202</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.7788642644882202</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.7444449663162231</v>
+      </c>
+      <c r="O103" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.3058821558952332</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.8222180604934692</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.8939059972763062</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.822974681854248</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.9812639355659485</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.861965537071228</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.8398039937019348</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.5296033024787903</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.7805154323577881</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.7480747103691101</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.8119035959243774</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.9513530135154724</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.7786805629730225</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.7441181540489197</v>
+      </c>
+      <c r="O104" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.3106173574924469</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.8129886984825134</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9004034996032715</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.810539722442627</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.979796290397644</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.8595770597457886</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.8371462225914001</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.5294365286827087</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.7788956165313721</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.7521212100982666</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.8042420148849487</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.949705958366394</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.7772798538208008</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.7430152297019958</v>
+      </c>
+      <c r="O105" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.2990956902503967</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.8231386542320251</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.8996407985687256</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.8204045295715332</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.9810015559196472</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.8647500872612</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.8431423306465149</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.5400792360305786</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.7813928127288818</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.7589653730392456</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.8037824630737305</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.9489325881004333</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.7807110548019409</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.7461162209510803</v>
+      </c>
+      <c r="O106" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.3029557168483734</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.8236048221588135</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.895782470703125</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.82047039270401</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.98087078332901</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.8628069162368774</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.8412739038467407</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.5340896248817444</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.7758805751800537</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.7319526076316833</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.8122431635856628</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.950604259967804</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.7700340151786804</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.7363846302032471</v>
+      </c>
+      <c r="O107" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.3037958741188049</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.8177132606506348</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.8994253873825073</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.8136891722679138</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.9806528091430664</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.861490786075592</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.8395392894744873</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.5242319703102112</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.7808368802070618</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.7567304372787476</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.8015229105949402</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.9510595798492432</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.7784921526908875</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.7439566254615784</v>
+      </c>
+      <c r="O108" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.3015497624874115</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.8210541009902954</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.8977746963500977</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.82192462682724</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.9809654951095581</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.8637416958808899</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.8417027592658997</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.5245161652565002</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.7835495471954346</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.7675445079803467</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.7932122349739075</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.9498500823974609</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.7801564931869507</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.7467221021652222</v>
+      </c>
+      <c r="O109" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.2983307540416718</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.8267157077789307</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.8974905610084534</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.8264318108558655</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.9816937446594238</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.8662936687469482</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.8444824814796448</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.5188364386558533</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.7832522392272949</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.7526161074638367</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.8127939701080322</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.952401876449585</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.7815423607826233</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.7481164336204529</v>
+      </c>
+      <c r="O110" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.3051905632019043</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.8256635069847107</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.889110803604126</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.8289438486099243</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.981251060962677</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.864058256149292</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.842092752456665</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.533281683921814</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.7803268432617188</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.7539719939231873</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.7998228669166565</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.9478145837783813</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.7762259244918823</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.7430997490882874</v>
+      </c>
+      <c r="O111" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.294597327709198</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.8259786367416382</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.8944293260574341</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.8298807144165039</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.9818547368049622</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.8666265606880188</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.8451657891273499</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.5378799438476562</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.7778925895690918</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.7501727938652039</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.7954543232917786</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.9484462738037109</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.7721500992774963</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.7383490204811096</v>
+      </c>
+      <c r="O112" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.2990864217281342</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.8249529600143433</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.8965952396392822</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.8244499564170837</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.9814838171005249</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.8647632002830505</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.8432538509368896</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.5316867232322693</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.778663694858551</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.7574899792671204</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.7931628823280334</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.9512816071510315</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.7749150991439819</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.7406625747680664</v>
+      </c>
+      <c r="O113" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.2998161017894745</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.824126124382019</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9002055525779724</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.820454478263855</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.9809759259223938</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.8647090792655945</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8429477214813232</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.5390602946281433</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.7776250243186951</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7483562231063843</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.7960885763168335</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.9468852877616882</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.7715052366256714</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.7371960878372192</v>
+      </c>
+      <c r="O114" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.2993793785572052</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.8275872468948364</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.8916711211204529</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.833996057510376</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.9818190336227417</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.8670454621315002</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.8452127575874329</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.5265257954597473</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.7796708345413208</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.742303192615509</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.8116013407707214</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.951279878616333</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.7754127383232117</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.742240846157074</v>
+      </c>
+      <c r="O115" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.2927693426609039</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.8289462327957153</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.8947998285293579</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.8323583006858826</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.9826299548149109</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.8669785857200623</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8459575772285461</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.5475272536277771</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.7745392918586731</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.7366390228271484</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.8122708201408386</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.9488306641578674</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.772605299949646</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.7383805513381958</v>
+      </c>
+      <c r="O116" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.287682980298996</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.8344776630401611</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.8945952653884888</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.8382418751716614</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.9831927418708801</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.8706681728363037</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.8496024608612061</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.5367770195007324</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.7794014811515808</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.7480141520500183</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.8039782643318176</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.9490535855293274</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.7749834060668945</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.7406284809112549</v>
+      </c>
+      <c r="O117" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.2934205830097198</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.8271035552024841</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.8971338868141174</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.8341251015663147</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.9820776581764221</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.8691796660423279</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.8476676940917969</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.5533537864685059</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.7718303203582764</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.7283326983451843</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.8076781034469604</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.947354257106781</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.7659397125244141</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.7309569120407104</v>
+      </c>
+      <c r="O118" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.2967821359634399</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.8245874643325806</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.8921313285827637</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.8301673531532288</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.9816424250602722</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.8655441403388977</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.8440523743629456</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.5236521363258362</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.7849934101104736</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7545141577720642</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.8192046880722046</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.9525274038314819</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.7855217456817627</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.7519543766975403</v>
+      </c>
+      <c r="O119" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.2986826300621033</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.8181114196777344</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9000494480133057</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.8216711282730103</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.9813783168792725</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.8645617365837097</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.8427994251251221</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.5274810194969177</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.7820022106170654</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7625102996826172</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.798129677772522</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.9497591257095337</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.7798978090286255</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.7466294765472412</v>
+      </c>
+      <c r="O120" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.2957880198955536</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.8214907050132751</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9050114750862122</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.8173838257789612</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.9815133810043335</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.8655099868774414</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.8442705273628235</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.5276505351066589</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.7785217761993408</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.7470306158065796</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.8094035387039185</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.9504810571670532</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.7769595384597778</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.7429484724998474</v>
+      </c>
+      <c r="O121" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.2953730225563049</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.826626181602478</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.8955854773521423</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.8268186450004578</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.9816672801971436</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.8659396171569824</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.8444803953170776</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.5301821827888489</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.7827889323234558</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.7544365525245667</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.8050464391708374</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.9488776922225952</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.7789153456687927</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.745650053024292</v>
+      </c>
+      <c r="O122" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.2890896499156952</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.8266104459762573</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.9021195769309998</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.8275215625762939</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.9828585982322693</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.8689224123954773</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.8481588363647461</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.5417206287384033</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.7756714820861816</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7444160580635071</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.804050624370575</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.9483711719512939</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.773055374622345</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.7385204434394836</v>
+      </c>
+      <c r="O123" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.2923412919044495</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.8248041272163391</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.8990632891654968</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.8280396461486816</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.9824023842811584</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.8676561117172241</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.8464930057525635</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.5394625663757324</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.7794477939605713</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.7498759031295776</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.8018540740013123</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.9477821588516235</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.774997889995575</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.7408414483070374</v>
+      </c>
+      <c r="O124" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.2941337525844574</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.8231205940246582</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.9007214903831482</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.8221955299377441</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.9813860058784485</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.8666824102401733</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.845220685005188</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.5331282615661621</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.7764585018157959</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.738811731338501</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.8117117881774902</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.9492628574371338</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.7735376358032227</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.73930823802948</v>
+      </c>
+      <c r="O125" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.2819196879863739</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.8324958086013794</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.8992490768432617</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.8367388844490051</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.9833967089653015</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.8730225563049316</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.8522736430168152</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.5287100672721863</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.7805842757225037</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.7543394565582275</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.8002718091011047</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.9488697052001953</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.7766396999359131</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.7435151934623718</v>
+      </c>
+      <c r="O126" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.2874294519424438</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.8279920220375061</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.8971369862556458</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.8313745260238647</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.9826838374137878</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.8689810037612915</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.8484434485435486</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.5454508662223816</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.7755132913589478</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.7347859740257263</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.8038771152496338</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.9464455842971802</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.7677670121192932</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.7348644733428955</v>
+      </c>
+      <c r="O127" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.2889656722545624</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.8230521082878113</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9061597585678101</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.8237295746803284</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.9825329184532166</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.8692716956138611</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.8481147885322571</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.5475615262985229</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.7757394313812256</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.7478543519973755</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.7952204346656799</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.9459630846977234</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.7708014845848083</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.7367305755615234</v>
+      </c>
+      <c r="O128" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.2856565713882446</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.8273407220840454</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9037224650382996</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.8259280920028687</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.9824169278144836</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.8697156310081482</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.8488420844078064</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.540157675743103</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.7770625948905945</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.7402527332305908</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.807090699672699</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.9491365551948547</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.7722232937812805</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.7373661398887634</v>
+      </c>
+      <c r="O129" t="n">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
